--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1275"/>
+  <dimension ref="A1:R1276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71357,7 +71357,7 @@
         <v>23</v>
       </c>
       <c r="O1266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1266" t="n">
         <v>0</v>
@@ -71869,7 +71869,63 @@
       <c r="Q1275" t="n">
         <v>0</v>
       </c>
-      <c r="R1275" t="inlineStr"/>
+      <c r="R1275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B1276" t="n">
+        <v>1521.75</v>
+      </c>
+      <c r="C1276" t="n">
+        <v>1525.949951171875</v>
+      </c>
+      <c r="D1276" t="n">
+        <v>1488.550048828125</v>
+      </c>
+      <c r="E1276" t="n">
+        <v>1515.849975585938</v>
+      </c>
+      <c r="F1276" t="n">
+        <v>1515.849975585938</v>
+      </c>
+      <c r="G1276" t="n">
+        <v>602401</v>
+      </c>
+      <c r="H1276" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1276" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1276" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1276" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1276" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1276"/>
+  <dimension ref="A1:R1283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71925,7 +71925,387 @@
       <c r="Q1276" t="n">
         <v>0</v>
       </c>
-      <c r="R1276" t="inlineStr"/>
+      <c r="R1276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B1277" t="n">
+        <v>1526</v>
+      </c>
+      <c r="C1277" t="n">
+        <v>1560.300048828125</v>
+      </c>
+      <c r="D1277" t="n">
+        <v>1507</v>
+      </c>
+      <c r="E1277" t="n">
+        <v>1552.599975585938</v>
+      </c>
+      <c r="F1277" t="n">
+        <v>1552.599975585938</v>
+      </c>
+      <c r="G1277" t="n">
+        <v>932609</v>
+      </c>
+      <c r="H1277" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1277" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1277" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1277" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1277" t="inlineStr"/>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>1574.699951171875</v>
+      </c>
+      <c r="C1278" t="n">
+        <v>1638.650024414062</v>
+      </c>
+      <c r="D1278" t="n">
+        <v>1555.349975585938</v>
+      </c>
+      <c r="E1278" t="n">
+        <v>1588.75</v>
+      </c>
+      <c r="F1278" t="n">
+        <v>1588.75</v>
+      </c>
+      <c r="G1278" t="n">
+        <v>2620495</v>
+      </c>
+      <c r="H1278" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1278" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1278" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1278" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1278" t="inlineStr"/>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>1592.449951171875</v>
+      </c>
+      <c r="C1279" t="n">
+        <v>1622</v>
+      </c>
+      <c r="D1279" t="n">
+        <v>1562.599975585938</v>
+      </c>
+      <c r="E1279" t="n">
+        <v>1609.5</v>
+      </c>
+      <c r="F1279" t="n">
+        <v>1609.5</v>
+      </c>
+      <c r="G1279" t="n">
+        <v>946346</v>
+      </c>
+      <c r="H1279" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1279" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1279" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1279" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1279" t="inlineStr"/>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>1611</v>
+      </c>
+      <c r="C1280" t="n">
+        <v>1631</v>
+      </c>
+      <c r="D1280" t="n">
+        <v>1575</v>
+      </c>
+      <c r="E1280" t="n">
+        <v>1579.050048828125</v>
+      </c>
+      <c r="F1280" t="n">
+        <v>1579.050048828125</v>
+      </c>
+      <c r="G1280" t="n">
+        <v>576522</v>
+      </c>
+      <c r="H1280" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1280" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1280" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1280" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1280" t="inlineStr"/>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>1584.949951171875</v>
+      </c>
+      <c r="C1281" t="n">
+        <v>1630</v>
+      </c>
+      <c r="D1281" t="n">
+        <v>1584.949951171875</v>
+      </c>
+      <c r="E1281" t="n">
+        <v>1592.650024414062</v>
+      </c>
+      <c r="F1281" t="n">
+        <v>1592.650024414062</v>
+      </c>
+      <c r="G1281" t="n">
+        <v>845281</v>
+      </c>
+      <c r="H1281" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1281" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1281" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1281" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1281" t="inlineStr"/>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>1590</v>
+      </c>
+      <c r="C1282" t="n">
+        <v>1613.199951171875</v>
+      </c>
+      <c r="D1282" t="n">
+        <v>1550</v>
+      </c>
+      <c r="E1282" t="n">
+        <v>1561.099975585938</v>
+      </c>
+      <c r="F1282" t="n">
+        <v>1561.099975585938</v>
+      </c>
+      <c r="G1282" t="n">
+        <v>886087</v>
+      </c>
+      <c r="H1282" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1282" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1282" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1282" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1282" t="inlineStr"/>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>1579.300048828125</v>
+      </c>
+      <c r="C1283" t="n">
+        <v>1698.699951171875</v>
+      </c>
+      <c r="D1283" t="n">
+        <v>1565.800048828125</v>
+      </c>
+      <c r="E1283" t="n">
+        <v>1634.75</v>
+      </c>
+      <c r="F1283" t="n">
+        <v>1634.75</v>
+      </c>
+      <c r="G1283" t="n">
+        <v>4100082</v>
+      </c>
+      <c r="H1283" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1283" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1283" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1283" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1283" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -71981,7 +71981,9 @@
       <c r="Q1277" t="n">
         <v>0</v>
       </c>
-      <c r="R1277" t="inlineStr"/>
+      <c r="R1277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1278">
       <c r="A1278" s="2" t="n">
@@ -72035,7 +72037,9 @@
       <c r="Q1278" t="n">
         <v>0</v>
       </c>
-      <c r="R1278" t="inlineStr"/>
+      <c r="R1278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1279">
       <c r="A1279" s="2" t="n">
@@ -72089,7 +72093,9 @@
       <c r="Q1279" t="n">
         <v>0</v>
       </c>
-      <c r="R1279" t="inlineStr"/>
+      <c r="R1279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1280">
       <c r="A1280" s="2" t="n">
@@ -72143,7 +72149,9 @@
       <c r="Q1280" t="n">
         <v>0</v>
       </c>
-      <c r="R1280" t="inlineStr"/>
+      <c r="R1280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1281">
       <c r="A1281" s="2" t="n">
@@ -72197,7 +72205,9 @@
       <c r="Q1281" t="n">
         <v>0</v>
       </c>
-      <c r="R1281" t="inlineStr"/>
+      <c r="R1281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1282">
       <c r="A1282" s="2" t="n">
@@ -72251,7 +72261,9 @@
       <c r="Q1282" t="n">
         <v>0</v>
       </c>
-      <c r="R1282" t="inlineStr"/>
+      <c r="R1282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1283">
       <c r="A1283" s="2" t="n">
@@ -72305,7 +72317,9 @@
       <c r="Q1283" t="n">
         <v>0</v>
       </c>
-      <c r="R1283" t="inlineStr"/>
+      <c r="R1283" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1283"/>
+  <dimension ref="A1:R1288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72321,6 +72321,276 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1284">
+      <c r="A1284" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>1650</v>
+      </c>
+      <c r="C1284" t="n">
+        <v>1719.449951171875</v>
+      </c>
+      <c r="D1284" t="n">
+        <v>1645</v>
+      </c>
+      <c r="E1284" t="n">
+        <v>1662.800048828125</v>
+      </c>
+      <c r="F1284" t="n">
+        <v>1662.800048828125</v>
+      </c>
+      <c r="G1284" t="n">
+        <v>2009863</v>
+      </c>
+      <c r="H1284" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1284" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1284" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1284" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1284" t="inlineStr"/>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>1686.650024414062</v>
+      </c>
+      <c r="C1285" t="n">
+        <v>1705</v>
+      </c>
+      <c r="D1285" t="n">
+        <v>1636</v>
+      </c>
+      <c r="E1285" t="n">
+        <v>1663.599975585938</v>
+      </c>
+      <c r="F1285" t="n">
+        <v>1663.599975585938</v>
+      </c>
+      <c r="G1285" t="n">
+        <v>1000624</v>
+      </c>
+      <c r="H1285" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1285" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1285" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1285" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1285" t="inlineStr"/>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>1677.699951171875</v>
+      </c>
+      <c r="C1286" t="n">
+        <v>1735.900024414062</v>
+      </c>
+      <c r="D1286" t="n">
+        <v>1675.050048828125</v>
+      </c>
+      <c r="E1286" t="n">
+        <v>1721.25</v>
+      </c>
+      <c r="F1286" t="n">
+        <v>1721.25</v>
+      </c>
+      <c r="G1286" t="n">
+        <v>2052388</v>
+      </c>
+      <c r="H1286" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1286" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1286" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1286" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1286" t="inlineStr"/>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>1734.949951171875</v>
+      </c>
+      <c r="C1287" t="n">
+        <v>1774.099975585938</v>
+      </c>
+      <c r="D1287" t="n">
+        <v>1725</v>
+      </c>
+      <c r="E1287" t="n">
+        <v>1741.650024414062</v>
+      </c>
+      <c r="F1287" t="n">
+        <v>1741.650024414062</v>
+      </c>
+      <c r="G1287" t="n">
+        <v>1335556</v>
+      </c>
+      <c r="H1287" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1287" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1287" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1287" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1287" t="inlineStr"/>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>1746.900024414062</v>
+      </c>
+      <c r="C1288" t="n">
+        <v>1746.900024414062</v>
+      </c>
+      <c r="D1288" t="n">
+        <v>1680.099975585938</v>
+      </c>
+      <c r="E1288" t="n">
+        <v>1693.949951171875</v>
+      </c>
+      <c r="F1288" t="n">
+        <v>1693.949951171875</v>
+      </c>
+      <c r="G1288" t="n">
+        <v>847162</v>
+      </c>
+      <c r="H1288" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1288" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1288" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1288" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1288" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1288"/>
+  <dimension ref="A1:R1297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72373,7 +72373,9 @@
       <c r="Q1284" t="n">
         <v>0</v>
       </c>
-      <c r="R1284" t="inlineStr"/>
+      <c r="R1284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1285">
       <c r="A1285" s="2" t="n">
@@ -72427,7 +72429,9 @@
       <c r="Q1285" t="n">
         <v>0</v>
       </c>
-      <c r="R1285" t="inlineStr"/>
+      <c r="R1285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1286">
       <c r="A1286" s="2" t="n">
@@ -72481,7 +72485,9 @@
       <c r="Q1286" t="n">
         <v>0</v>
       </c>
-      <c r="R1286" t="inlineStr"/>
+      <c r="R1286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1287">
       <c r="A1287" s="2" t="n">
@@ -72535,7 +72541,9 @@
       <c r="Q1287" t="n">
         <v>0</v>
       </c>
-      <c r="R1287" t="inlineStr"/>
+      <c r="R1287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1288">
       <c r="A1288" s="2" t="n">
@@ -72589,7 +72597,495 @@
       <c r="Q1288" t="n">
         <v>0</v>
       </c>
-      <c r="R1288" t="inlineStr"/>
+      <c r="R1288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1289" t="n">
+        <v>1693.949951171875</v>
+      </c>
+      <c r="C1289" t="n">
+        <v>1700.900024414062</v>
+      </c>
+      <c r="D1289" t="n">
+        <v>1653.75</v>
+      </c>
+      <c r="E1289" t="n">
+        <v>1682.949951171875</v>
+      </c>
+      <c r="F1289" t="n">
+        <v>1682.949951171875</v>
+      </c>
+      <c r="G1289" t="n">
+        <v>836199</v>
+      </c>
+      <c r="H1289" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1289" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1289" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1289" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1289" t="inlineStr"/>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1290" t="n">
+        <v>1732</v>
+      </c>
+      <c r="C1290" t="n">
+        <v>1749.800048828125</v>
+      </c>
+      <c r="D1290" t="n">
+        <v>1691.300048828125</v>
+      </c>
+      <c r="E1290" t="n">
+        <v>1719.550048828125</v>
+      </c>
+      <c r="F1290" t="n">
+        <v>1719.550048828125</v>
+      </c>
+      <c r="G1290" t="n">
+        <v>868757</v>
+      </c>
+      <c r="H1290" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1290" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1290" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1290" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1290" t="inlineStr"/>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1291" t="n">
+        <v>1730</v>
+      </c>
+      <c r="C1291" t="n">
+        <v>1733.900024414062</v>
+      </c>
+      <c r="D1291" t="n">
+        <v>1660.900024414062</v>
+      </c>
+      <c r="E1291" t="n">
+        <v>1701.199951171875</v>
+      </c>
+      <c r="F1291" t="n">
+        <v>1701.199951171875</v>
+      </c>
+      <c r="G1291" t="n">
+        <v>731828</v>
+      </c>
+      <c r="H1291" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1291" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1291" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1291" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1291" t="inlineStr"/>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1292" t="n">
+        <v>1713.099975585938</v>
+      </c>
+      <c r="C1292" t="n">
+        <v>1740.550048828125</v>
+      </c>
+      <c r="D1292" t="n">
+        <v>1696</v>
+      </c>
+      <c r="E1292" t="n">
+        <v>1709.849975585938</v>
+      </c>
+      <c r="F1292" t="n">
+        <v>1709.849975585938</v>
+      </c>
+      <c r="G1292" t="n">
+        <v>895755</v>
+      </c>
+      <c r="H1292" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1292" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1292" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1292" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1292" t="inlineStr"/>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>1718.400024414062</v>
+      </c>
+      <c r="C1293" t="n">
+        <v>1928.699951171875</v>
+      </c>
+      <c r="D1293" t="n">
+        <v>1702.900024414062</v>
+      </c>
+      <c r="E1293" t="n">
+        <v>1865.550048828125</v>
+      </c>
+      <c r="F1293" t="n">
+        <v>1865.550048828125</v>
+      </c>
+      <c r="G1293" t="n">
+        <v>6254949</v>
+      </c>
+      <c r="H1293" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1293" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1293" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1293" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1293" t="inlineStr"/>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>1882.300048828125</v>
+      </c>
+      <c r="C1294" t="n">
+        <v>1891.349975585938</v>
+      </c>
+      <c r="D1294" t="n">
+        <v>1827.099975585938</v>
+      </c>
+      <c r="E1294" t="n">
+        <v>1840.5</v>
+      </c>
+      <c r="F1294" t="n">
+        <v>1840.5</v>
+      </c>
+      <c r="G1294" t="n">
+        <v>1700105</v>
+      </c>
+      <c r="H1294" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1294" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1294" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1294" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1294" t="inlineStr"/>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>1848</v>
+      </c>
+      <c r="C1295" t="n">
+        <v>1885.849975585938</v>
+      </c>
+      <c r="D1295" t="n">
+        <v>1817.25</v>
+      </c>
+      <c r="E1295" t="n">
+        <v>1868.699951171875</v>
+      </c>
+      <c r="F1295" t="n">
+        <v>1868.699951171875</v>
+      </c>
+      <c r="G1295" t="n">
+        <v>1784986</v>
+      </c>
+      <c r="H1295" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1295" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1295" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1295" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1295" t="inlineStr"/>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>1860</v>
+      </c>
+      <c r="C1296" t="n">
+        <v>1882</v>
+      </c>
+      <c r="D1296" t="n">
+        <v>1812</v>
+      </c>
+      <c r="E1296" t="n">
+        <v>1858.300048828125</v>
+      </c>
+      <c r="F1296" t="n">
+        <v>1858.300048828125</v>
+      </c>
+      <c r="G1296" t="n">
+        <v>1095617</v>
+      </c>
+      <c r="H1296" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1296" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1296" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1296" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1296" t="inlineStr"/>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>1850.050048828125</v>
+      </c>
+      <c r="C1297" t="n">
+        <v>1909</v>
+      </c>
+      <c r="D1297" t="n">
+        <v>1810</v>
+      </c>
+      <c r="E1297" t="n">
+        <v>1819.699951171875</v>
+      </c>
+      <c r="F1297" t="n">
+        <v>1819.699951171875</v>
+      </c>
+      <c r="G1297" t="n">
+        <v>1928288</v>
+      </c>
+      <c r="H1297" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1297" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1297" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1297" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1297" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1297"/>
+  <dimension ref="A1:R1307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72653,7 +72653,9 @@
       <c r="Q1289" t="n">
         <v>0</v>
       </c>
-      <c r="R1289" t="inlineStr"/>
+      <c r="R1289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1290">
       <c r="A1290" s="2" t="n">
@@ -72707,7 +72709,9 @@
       <c r="Q1290" t="n">
         <v>0</v>
       </c>
-      <c r="R1290" t="inlineStr"/>
+      <c r="R1290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1291">
       <c r="A1291" s="2" t="n">
@@ -72761,7 +72765,9 @@
       <c r="Q1291" t="n">
         <v>0</v>
       </c>
-      <c r="R1291" t="inlineStr"/>
+      <c r="R1291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1292">
       <c r="A1292" s="2" t="n">
@@ -72815,7 +72821,9 @@
       <c r="Q1292" t="n">
         <v>0</v>
       </c>
-      <c r="R1292" t="inlineStr"/>
+      <c r="R1292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1293">
       <c r="A1293" s="2" t="n">
@@ -72861,7 +72869,7 @@
         <v>28</v>
       </c>
       <c r="O1293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1293" t="n">
         <v>0</v>
@@ -72869,7 +72877,9 @@
       <c r="Q1293" t="n">
         <v>0</v>
       </c>
-      <c r="R1293" t="inlineStr"/>
+      <c r="R1293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1294">
       <c r="A1294" s="2" t="n">
@@ -72923,7 +72933,9 @@
       <c r="Q1294" t="n">
         <v>0</v>
       </c>
-      <c r="R1294" t="inlineStr"/>
+      <c r="R1294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1295">
       <c r="A1295" s="2" t="n">
@@ -72977,7 +72989,9 @@
       <c r="Q1295" t="n">
         <v>0</v>
       </c>
-      <c r="R1295" t="inlineStr"/>
+      <c r="R1295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1296">
       <c r="A1296" s="2" t="n">
@@ -73031,7 +73045,9 @@
       <c r="Q1296" t="n">
         <v>0</v>
       </c>
-      <c r="R1296" t="inlineStr"/>
+      <c r="R1296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1297">
       <c r="A1297" s="2" t="n">
@@ -73085,7 +73101,549 @@
       <c r="Q1297" t="n">
         <v>0</v>
       </c>
-      <c r="R1297" t="inlineStr"/>
+      <c r="R1297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C1298" t="n">
+        <v>1853.900024414062</v>
+      </c>
+      <c r="D1298" t="n">
+        <v>1770.949951171875</v>
+      </c>
+      <c r="E1298" t="n">
+        <v>1825.400024414062</v>
+      </c>
+      <c r="F1298" t="n">
+        <v>1825.400024414062</v>
+      </c>
+      <c r="G1298" t="n">
+        <v>860662</v>
+      </c>
+      <c r="H1298" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1298" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1298" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1298" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1298" t="inlineStr"/>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>1825.400024414062</v>
+      </c>
+      <c r="C1299" t="n">
+        <v>1830.800048828125</v>
+      </c>
+      <c r="D1299" t="n">
+        <v>1705.550048828125</v>
+      </c>
+      <c r="E1299" t="n">
+        <v>1794.5</v>
+      </c>
+      <c r="F1299" t="n">
+        <v>1794.5</v>
+      </c>
+      <c r="G1299" t="n">
+        <v>1082313</v>
+      </c>
+      <c r="H1299" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1299" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1299" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1299" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1299" t="inlineStr"/>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>1810</v>
+      </c>
+      <c r="C1300" t="n">
+        <v>1885.5</v>
+      </c>
+      <c r="D1300" t="n">
+        <v>1790.949951171875</v>
+      </c>
+      <c r="E1300" t="n">
+        <v>1853.849975585938</v>
+      </c>
+      <c r="F1300" t="n">
+        <v>1853.849975585938</v>
+      </c>
+      <c r="G1300" t="n">
+        <v>2107689</v>
+      </c>
+      <c r="H1300" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1300" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1300" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1300" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1300" t="inlineStr"/>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>1847.849975585938</v>
+      </c>
+      <c r="C1301" t="n">
+        <v>1847.849975585938</v>
+      </c>
+      <c r="D1301" t="n">
+        <v>1762.050048828125</v>
+      </c>
+      <c r="E1301" t="n">
+        <v>1773.949951171875</v>
+      </c>
+      <c r="F1301" t="n">
+        <v>1773.949951171875</v>
+      </c>
+      <c r="G1301" t="n">
+        <v>1828473</v>
+      </c>
+      <c r="H1301" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1301" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1301" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1301" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1301" t="inlineStr"/>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1302" t="n">
+        <v>1805</v>
+      </c>
+      <c r="C1302" t="n">
+        <v>1815</v>
+      </c>
+      <c r="D1302" t="n">
+        <v>1778.150024414062</v>
+      </c>
+      <c r="E1302" t="n">
+        <v>1788.949951171875</v>
+      </c>
+      <c r="F1302" t="n">
+        <v>1788.949951171875</v>
+      </c>
+      <c r="G1302" t="n">
+        <v>621852</v>
+      </c>
+      <c r="H1302" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1302" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1302" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1302" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1302" t="inlineStr"/>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1303" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C1303" t="n">
+        <v>1839</v>
+      </c>
+      <c r="D1303" t="n">
+        <v>1774.199951171875</v>
+      </c>
+      <c r="E1303" t="n">
+        <v>1799.5</v>
+      </c>
+      <c r="F1303" t="n">
+        <v>1799.5</v>
+      </c>
+      <c r="G1303" t="n">
+        <v>982427</v>
+      </c>
+      <c r="H1303" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1303" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1303" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1303" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1303" t="inlineStr"/>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C1304" t="n">
+        <v>1841.949951171875</v>
+      </c>
+      <c r="D1304" t="n">
+        <v>1787.5</v>
+      </c>
+      <c r="E1304" t="n">
+        <v>1836.900024414062</v>
+      </c>
+      <c r="F1304" t="n">
+        <v>1836.900024414062</v>
+      </c>
+      <c r="G1304" t="n">
+        <v>690502</v>
+      </c>
+      <c r="H1304" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1304" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1304" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1304" t="inlineStr"/>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>1840</v>
+      </c>
+      <c r="C1305" t="n">
+        <v>1910</v>
+      </c>
+      <c r="D1305" t="n">
+        <v>1830.099975585938</v>
+      </c>
+      <c r="E1305" t="n">
+        <v>1842.599975585938</v>
+      </c>
+      <c r="F1305" t="n">
+        <v>1842.599975585938</v>
+      </c>
+      <c r="G1305" t="n">
+        <v>1678695</v>
+      </c>
+      <c r="H1305" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1305" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1305" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1305" t="inlineStr"/>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>1873.5</v>
+      </c>
+      <c r="C1306" t="n">
+        <v>1899.900024414062</v>
+      </c>
+      <c r="D1306" t="n">
+        <v>1831</v>
+      </c>
+      <c r="E1306" t="n">
+        <v>1840.449951171875</v>
+      </c>
+      <c r="F1306" t="n">
+        <v>1840.449951171875</v>
+      </c>
+      <c r="G1306" t="n">
+        <v>1107361</v>
+      </c>
+      <c r="H1306" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1306" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1306" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1306" t="inlineStr"/>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1307" t="n">
+        <v>1818.199951171875</v>
+      </c>
+      <c r="C1307" t="n">
+        <v>1874.949951171875</v>
+      </c>
+      <c r="D1307" t="n">
+        <v>1800.449951171875</v>
+      </c>
+      <c r="E1307" t="n">
+        <v>1823.949951171875</v>
+      </c>
+      <c r="F1307" t="n">
+        <v>1823.949951171875</v>
+      </c>
+      <c r="G1307" t="n">
+        <v>699889</v>
+      </c>
+      <c r="H1307" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1307" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1307" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1307" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1307" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1307"/>
+  <dimension ref="A1:R1312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73157,7 +73157,9 @@
       <c r="Q1298" t="n">
         <v>0</v>
       </c>
-      <c r="R1298" t="inlineStr"/>
+      <c r="R1298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1299">
       <c r="A1299" s="2" t="n">
@@ -73211,7 +73213,9 @@
       <c r="Q1299" t="n">
         <v>0</v>
       </c>
-      <c r="R1299" t="inlineStr"/>
+      <c r="R1299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1300">
       <c r="A1300" s="2" t="n">
@@ -73265,7 +73269,9 @@
       <c r="Q1300" t="n">
         <v>0</v>
       </c>
-      <c r="R1300" t="inlineStr"/>
+      <c r="R1300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1301">
       <c r="A1301" s="2" t="n">
@@ -73319,7 +73325,9 @@
       <c r="Q1301" t="n">
         <v>0</v>
       </c>
-      <c r="R1301" t="inlineStr"/>
+      <c r="R1301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1302">
       <c r="A1302" s="2" t="n">
@@ -73373,7 +73381,9 @@
       <c r="Q1302" t="n">
         <v>0</v>
       </c>
-      <c r="R1302" t="inlineStr"/>
+      <c r="R1302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1303">
       <c r="A1303" s="2" t="n">
@@ -73427,7 +73437,9 @@
       <c r="Q1303" t="n">
         <v>0</v>
       </c>
-      <c r="R1303" t="inlineStr"/>
+      <c r="R1303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1304">
       <c r="A1304" s="2" t="n">
@@ -73481,7 +73493,9 @@
       <c r="Q1304" t="n">
         <v>0</v>
       </c>
-      <c r="R1304" t="inlineStr"/>
+      <c r="R1304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1305">
       <c r="A1305" s="2" t="n">
@@ -73535,7 +73549,9 @@
       <c r="Q1305" t="n">
         <v>0</v>
       </c>
-      <c r="R1305" t="inlineStr"/>
+      <c r="R1305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1306">
       <c r="A1306" s="2" t="n">
@@ -73589,7 +73605,9 @@
       <c r="Q1306" t="n">
         <v>0</v>
       </c>
-      <c r="R1306" t="inlineStr"/>
+      <c r="R1306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1307">
       <c r="A1307" s="2" t="n">
@@ -73643,7 +73661,279 @@
       <c r="Q1307" t="n">
         <v>0</v>
       </c>
-      <c r="R1307" t="inlineStr"/>
+      <c r="R1307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1308" t="n">
+        <v>1769.550048828125</v>
+      </c>
+      <c r="C1308" t="n">
+        <v>1784.900024414062</v>
+      </c>
+      <c r="D1308" t="n">
+        <v>1712</v>
+      </c>
+      <c r="E1308" t="n">
+        <v>1725.650024414062</v>
+      </c>
+      <c r="F1308" t="n">
+        <v>1721.003295898438</v>
+      </c>
+      <c r="G1308" t="n">
+        <v>990245</v>
+      </c>
+      <c r="H1308" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1308" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1308" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1308" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1308" t="inlineStr"/>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1309" t="n">
+        <v>1759.75</v>
+      </c>
+      <c r="C1309" t="n">
+        <v>1794.949951171875</v>
+      </c>
+      <c r="D1309" t="n">
+        <v>1685</v>
+      </c>
+      <c r="E1309" t="n">
+        <v>1691.949951171875</v>
+      </c>
+      <c r="F1309" t="n">
+        <v>1687.393920898438</v>
+      </c>
+      <c r="G1309" t="n">
+        <v>893983</v>
+      </c>
+      <c r="H1309" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1309" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1309" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1309" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1309" t="inlineStr"/>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B1310" t="n">
+        <v>1730</v>
+      </c>
+      <c r="C1310" t="n">
+        <v>1750</v>
+      </c>
+      <c r="D1310" t="n">
+        <v>1700</v>
+      </c>
+      <c r="E1310" t="n">
+        <v>1739.25</v>
+      </c>
+      <c r="F1310" t="n">
+        <v>1734.566650390625</v>
+      </c>
+      <c r="G1310" t="n">
+        <v>527624</v>
+      </c>
+      <c r="H1310" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1310" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1310" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1310" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1310" t="inlineStr"/>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B1311" t="n">
+        <v>1772</v>
+      </c>
+      <c r="C1311" t="n">
+        <v>1772</v>
+      </c>
+      <c r="D1311" t="n">
+        <v>1704</v>
+      </c>
+      <c r="E1311" t="n">
+        <v>1708.300048828125</v>
+      </c>
+      <c r="F1311" t="n">
+        <v>1703.699951171875</v>
+      </c>
+      <c r="G1311" t="n">
+        <v>590227</v>
+      </c>
+      <c r="H1311" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1311" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1311" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1311" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1311" t="inlineStr"/>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>1742</v>
+      </c>
+      <c r="C1312" t="n">
+        <v>1764.949951171875</v>
+      </c>
+      <c r="D1312" t="n">
+        <v>1730.800048828125</v>
+      </c>
+      <c r="E1312" t="n">
+        <v>1758.25</v>
+      </c>
+      <c r="F1312" t="n">
+        <v>1758.25</v>
+      </c>
+      <c r="G1312" t="n">
+        <v>541890</v>
+      </c>
+      <c r="H1312" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1312" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1312" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1312" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1312"/>
+  <dimension ref="A1:R1316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73541,7 +73541,7 @@
         <v>31</v>
       </c>
       <c r="O1305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1305" t="n">
         <v>0</v>
@@ -73717,7 +73717,9 @@
       <c r="Q1308" t="n">
         <v>0</v>
       </c>
-      <c r="R1308" t="inlineStr"/>
+      <c r="R1308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1309">
       <c r="A1309" s="2" t="n">
@@ -73771,7 +73773,9 @@
       <c r="Q1309" t="n">
         <v>0</v>
       </c>
-      <c r="R1309" t="inlineStr"/>
+      <c r="R1309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1310">
       <c r="A1310" s="2" t="n">
@@ -73825,7 +73829,9 @@
       <c r="Q1310" t="n">
         <v>0</v>
       </c>
-      <c r="R1310" t="inlineStr"/>
+      <c r="R1310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1311">
       <c r="A1311" s="2" t="n">
@@ -73879,7 +73885,9 @@
       <c r="Q1311" t="n">
         <v>0</v>
       </c>
-      <c r="R1311" t="inlineStr"/>
+      <c r="R1311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1312">
       <c r="A1312" s="2" t="n">
@@ -73933,7 +73941,225 @@
       <c r="Q1312" t="n">
         <v>0</v>
       </c>
-      <c r="R1312" t="inlineStr"/>
+      <c r="R1312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1313" t="n">
+        <v>1743</v>
+      </c>
+      <c r="C1313" t="n">
+        <v>1827.900024414062</v>
+      </c>
+      <c r="D1313" t="n">
+        <v>1716</v>
+      </c>
+      <c r="E1313" t="n">
+        <v>1803.449951171875</v>
+      </c>
+      <c r="F1313" t="n">
+        <v>1803.449951171875</v>
+      </c>
+      <c r="G1313" t="n">
+        <v>1157547</v>
+      </c>
+      <c r="H1313" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1313" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1313" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1313" t="inlineStr"/>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1314" t="n">
+        <v>1805</v>
+      </c>
+      <c r="C1314" t="n">
+        <v>1821.5</v>
+      </c>
+      <c r="D1314" t="n">
+        <v>1740.5</v>
+      </c>
+      <c r="E1314" t="n">
+        <v>1748.650024414062</v>
+      </c>
+      <c r="F1314" t="n">
+        <v>1748.650024414062</v>
+      </c>
+      <c r="G1314" t="n">
+        <v>537720</v>
+      </c>
+      <c r="H1314" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1314" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1314" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1314" t="inlineStr"/>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B1315" t="n">
+        <v>1770</v>
+      </c>
+      <c r="C1315" t="n">
+        <v>1793.550048828125</v>
+      </c>
+      <c r="D1315" t="n">
+        <v>1742.300048828125</v>
+      </c>
+      <c r="E1315" t="n">
+        <v>1787.550048828125</v>
+      </c>
+      <c r="F1315" t="n">
+        <v>1787.550048828125</v>
+      </c>
+      <c r="G1315" t="n">
+        <v>676739</v>
+      </c>
+      <c r="H1315" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1315" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1315" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1315" t="inlineStr"/>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1316" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C1316" t="n">
+        <v>1855.949951171875</v>
+      </c>
+      <c r="D1316" t="n">
+        <v>1793.699951171875</v>
+      </c>
+      <c r="E1316" t="n">
+        <v>1815.400024414062</v>
+      </c>
+      <c r="F1316" t="n">
+        <v>1815.400024414062</v>
+      </c>
+      <c r="G1316" t="n">
+        <v>1030009</v>
+      </c>
+      <c r="H1316" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1316" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1316" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1316" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1316" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1316"/>
+  <dimension ref="A1:R1321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73765,7 +73765,7 @@
         <v>32</v>
       </c>
       <c r="O1309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1309" t="n">
         <v>0</v>
@@ -73997,7 +73997,9 @@
       <c r="Q1313" t="n">
         <v>0</v>
       </c>
-      <c r="R1313" t="inlineStr"/>
+      <c r="R1313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1314">
       <c r="A1314" s="2" t="n">
@@ -74051,7 +74053,9 @@
       <c r="Q1314" t="n">
         <v>0</v>
       </c>
-      <c r="R1314" t="inlineStr"/>
+      <c r="R1314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1315">
       <c r="A1315" s="2" t="n">
@@ -74105,7 +74109,9 @@
       <c r="Q1315" t="n">
         <v>0</v>
       </c>
-      <c r="R1315" t="inlineStr"/>
+      <c r="R1315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1316">
       <c r="A1316" s="2" t="n">
@@ -74159,7 +74165,279 @@
       <c r="Q1316" t="n">
         <v>0</v>
       </c>
-      <c r="R1316" t="inlineStr"/>
+      <c r="R1316" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1317" t="n">
+        <v>1831.900024414062</v>
+      </c>
+      <c r="C1317" t="n">
+        <v>1845.449951171875</v>
+      </c>
+      <c r="D1317" t="n">
+        <v>1801</v>
+      </c>
+      <c r="E1317" t="n">
+        <v>1834.449951171875</v>
+      </c>
+      <c r="F1317" t="n">
+        <v>1834.449951171875</v>
+      </c>
+      <c r="G1317" t="n">
+        <v>590083</v>
+      </c>
+      <c r="H1317" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1317" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1317" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1317" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1317" t="inlineStr"/>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1318" t="n">
+        <v>1841.050048828125</v>
+      </c>
+      <c r="C1318" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D1318" t="n">
+        <v>1821.050048828125</v>
+      </c>
+      <c r="E1318" t="n">
+        <v>1827.849975585938</v>
+      </c>
+      <c r="F1318" t="n">
+        <v>1827.849975585938</v>
+      </c>
+      <c r="G1318" t="n">
+        <v>1145083</v>
+      </c>
+      <c r="H1318" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1318" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1318" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1318" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1318" t="inlineStr"/>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1319" t="n">
+        <v>1842</v>
+      </c>
+      <c r="C1319" t="n">
+        <v>1855</v>
+      </c>
+      <c r="D1319" t="n">
+        <v>1818</v>
+      </c>
+      <c r="E1319" t="n">
+        <v>1830.349975585938</v>
+      </c>
+      <c r="F1319" t="n">
+        <v>1830.349975585938</v>
+      </c>
+      <c r="G1319" t="n">
+        <v>369853</v>
+      </c>
+      <c r="H1319" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1319" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1319" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1319" t="inlineStr"/>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1320" t="n">
+        <v>1847</v>
+      </c>
+      <c r="C1320" t="n">
+        <v>1868.949951171875</v>
+      </c>
+      <c r="D1320" t="n">
+        <v>1829.150024414062</v>
+      </c>
+      <c r="E1320" t="n">
+        <v>1832.400024414062</v>
+      </c>
+      <c r="F1320" t="n">
+        <v>1832.400024414062</v>
+      </c>
+      <c r="G1320" t="n">
+        <v>419630</v>
+      </c>
+      <c r="H1320" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1320" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1320" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1320" t="inlineStr"/>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1321" t="n">
+        <v>1843</v>
+      </c>
+      <c r="C1321" t="n">
+        <v>1854.25</v>
+      </c>
+      <c r="D1321" t="n">
+        <v>1808.050048828125</v>
+      </c>
+      <c r="E1321" t="n">
+        <v>1826.5</v>
+      </c>
+      <c r="F1321" t="n">
+        <v>1826.5</v>
+      </c>
+      <c r="G1321" t="n">
+        <v>384100</v>
+      </c>
+      <c r="H1321" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1321" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1321" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1321" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1321"/>
+  <dimension ref="A1:R1326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74221,7 +74221,9 @@
       <c r="Q1317" t="n">
         <v>0</v>
       </c>
-      <c r="R1317" t="inlineStr"/>
+      <c r="R1317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1318">
       <c r="A1318" s="2" t="n">
@@ -74275,7 +74277,9 @@
       <c r="Q1318" t="n">
         <v>0</v>
       </c>
-      <c r="R1318" t="inlineStr"/>
+      <c r="R1318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1319">
       <c r="A1319" s="2" t="n">
@@ -74329,7 +74333,9 @@
       <c r="Q1319" t="n">
         <v>0</v>
       </c>
-      <c r="R1319" t="inlineStr"/>
+      <c r="R1319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1320">
       <c r="A1320" s="2" t="n">
@@ -74383,7 +74389,9 @@
       <c r="Q1320" t="n">
         <v>0</v>
       </c>
-      <c r="R1320" t="inlineStr"/>
+      <c r="R1320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1321">
       <c r="A1321" s="2" t="n">
@@ -74437,7 +74445,279 @@
       <c r="Q1321" t="n">
         <v>0</v>
       </c>
-      <c r="R1321" t="inlineStr"/>
+      <c r="R1321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1322" t="n">
+        <v>1845</v>
+      </c>
+      <c r="C1322" t="n">
+        <v>1862.5</v>
+      </c>
+      <c r="D1322" t="n">
+        <v>1821.900024414062</v>
+      </c>
+      <c r="E1322" t="n">
+        <v>1846.599975585938</v>
+      </c>
+      <c r="F1322" t="n">
+        <v>1846.599975585938</v>
+      </c>
+      <c r="G1322" t="n">
+        <v>543244</v>
+      </c>
+      <c r="H1322" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1322" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1322" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1322" t="inlineStr"/>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>1840</v>
+      </c>
+      <c r="C1323" t="n">
+        <v>1909</v>
+      </c>
+      <c r="D1323" t="n">
+        <v>1826.800048828125</v>
+      </c>
+      <c r="E1323" t="n">
+        <v>1856.849975585938</v>
+      </c>
+      <c r="F1323" t="n">
+        <v>1856.849975585938</v>
+      </c>
+      <c r="G1323" t="n">
+        <v>1048434</v>
+      </c>
+      <c r="H1323" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1323" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1323" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1323" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1323" t="inlineStr"/>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1324" t="n">
+        <v>1864</v>
+      </c>
+      <c r="C1324" t="n">
+        <v>1921</v>
+      </c>
+      <c r="D1324" t="n">
+        <v>1842.599975585938</v>
+      </c>
+      <c r="E1324" t="n">
+        <v>1847.050048828125</v>
+      </c>
+      <c r="F1324" t="n">
+        <v>1847.050048828125</v>
+      </c>
+      <c r="G1324" t="n">
+        <v>1230446</v>
+      </c>
+      <c r="H1324" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1324" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1324" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1324" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1324" t="inlineStr"/>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>1847</v>
+      </c>
+      <c r="C1325" t="n">
+        <v>1876</v>
+      </c>
+      <c r="D1325" t="n">
+        <v>1838.349975585938</v>
+      </c>
+      <c r="E1325" t="n">
+        <v>1857.849975585938</v>
+      </c>
+      <c r="F1325" t="n">
+        <v>1857.849975585938</v>
+      </c>
+      <c r="G1325" t="n">
+        <v>466882</v>
+      </c>
+      <c r="H1325" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1325" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1325" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1325" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1325" t="inlineStr"/>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>1867</v>
+      </c>
+      <c r="C1326" t="n">
+        <v>1869</v>
+      </c>
+      <c r="D1326" t="n">
+        <v>1807</v>
+      </c>
+      <c r="E1326" t="n">
+        <v>1815.150024414062</v>
+      </c>
+      <c r="F1326" t="n">
+        <v>1815.150024414062</v>
+      </c>
+      <c r="G1326" t="n">
+        <v>837189</v>
+      </c>
+      <c r="H1326" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1326" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1326" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1326" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1326" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1326"/>
+  <dimension ref="A1:R1331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74501,7 +74501,9 @@
       <c r="Q1322" t="n">
         <v>0</v>
       </c>
-      <c r="R1322" t="inlineStr"/>
+      <c r="R1322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1323">
       <c r="A1323" s="2" t="n">
@@ -74555,7 +74557,9 @@
       <c r="Q1323" t="n">
         <v>0</v>
       </c>
-      <c r="R1323" t="inlineStr"/>
+      <c r="R1323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1324">
       <c r="A1324" s="2" t="n">
@@ -74609,7 +74613,9 @@
       <c r="Q1324" t="n">
         <v>0</v>
       </c>
-      <c r="R1324" t="inlineStr"/>
+      <c r="R1324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1325">
       <c r="A1325" s="2" t="n">
@@ -74663,7 +74669,9 @@
       <c r="Q1325" t="n">
         <v>0</v>
       </c>
-      <c r="R1325" t="inlineStr"/>
+      <c r="R1325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1326">
       <c r="A1326" s="2" t="n">
@@ -74717,7 +74725,279 @@
       <c r="Q1326" t="n">
         <v>0</v>
       </c>
-      <c r="R1326" t="inlineStr"/>
+      <c r="R1326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1327" t="n">
+        <v>1815.150024414062</v>
+      </c>
+      <c r="C1327" t="n">
+        <v>1824.300048828125</v>
+      </c>
+      <c r="D1327" t="n">
+        <v>1764</v>
+      </c>
+      <c r="E1327" t="n">
+        <v>1766.300048828125</v>
+      </c>
+      <c r="F1327" t="n">
+        <v>1766.300048828125</v>
+      </c>
+      <c r="G1327" t="n">
+        <v>1040685</v>
+      </c>
+      <c r="H1327" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1327" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1327" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1327" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1327" t="inlineStr"/>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1328" t="n">
+        <v>1767</v>
+      </c>
+      <c r="C1328" t="n">
+        <v>1779.550048828125</v>
+      </c>
+      <c r="D1328" t="n">
+        <v>1751</v>
+      </c>
+      <c r="E1328" t="n">
+        <v>1769.300048828125</v>
+      </c>
+      <c r="F1328" t="n">
+        <v>1769.300048828125</v>
+      </c>
+      <c r="G1328" t="n">
+        <v>510324</v>
+      </c>
+      <c r="H1328" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1328" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1328" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1328" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1328" t="inlineStr"/>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1329" t="n">
+        <v>1760</v>
+      </c>
+      <c r="C1329" t="n">
+        <v>1774.699951171875</v>
+      </c>
+      <c r="D1329" t="n">
+        <v>1745</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>1749.699951171875</v>
+      </c>
+      <c r="F1329" t="n">
+        <v>1749.699951171875</v>
+      </c>
+      <c r="G1329" t="n">
+        <v>394125</v>
+      </c>
+      <c r="H1329" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1329" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1329" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1329" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1329" t="inlineStr"/>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>1752</v>
+      </c>
+      <c r="C1330" t="n">
+        <v>1757.400024414062</v>
+      </c>
+      <c r="D1330" t="n">
+        <v>1715.449951171875</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>1722.900024414062</v>
+      </c>
+      <c r="F1330" t="n">
+        <v>1722.900024414062</v>
+      </c>
+      <c r="G1330" t="n">
+        <v>714635</v>
+      </c>
+      <c r="H1330" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1330" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1330" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1330" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1330" t="inlineStr"/>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>1728</v>
+      </c>
+      <c r="C1331" t="n">
+        <v>1748.650024414062</v>
+      </c>
+      <c r="D1331" t="n">
+        <v>1715.650024414062</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>1730.300048828125</v>
+      </c>
+      <c r="F1331" t="n">
+        <v>1730.300048828125</v>
+      </c>
+      <c r="G1331" t="n">
+        <v>697673</v>
+      </c>
+      <c r="H1331" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1331" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1331" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1331" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1331" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1331"/>
+  <dimension ref="A1:R1336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74605,7 +74605,7 @@
         <v>35</v>
       </c>
       <c r="O1324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1324" t="n">
         <v>0</v>
@@ -74781,7 +74781,9 @@
       <c r="Q1327" t="n">
         <v>0</v>
       </c>
-      <c r="R1327" t="inlineStr"/>
+      <c r="R1327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1328">
       <c r="A1328" s="2" t="n">
@@ -74835,7 +74837,9 @@
       <c r="Q1328" t="n">
         <v>0</v>
       </c>
-      <c r="R1328" t="inlineStr"/>
+      <c r="R1328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1329">
       <c r="A1329" s="2" t="n">
@@ -74889,7 +74893,9 @@
       <c r="Q1329" t="n">
         <v>0</v>
       </c>
-      <c r="R1329" t="inlineStr"/>
+      <c r="R1329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1330">
       <c r="A1330" s="2" t="n">
@@ -74943,7 +74949,9 @@
       <c r="Q1330" t="n">
         <v>0</v>
       </c>
-      <c r="R1330" t="inlineStr"/>
+      <c r="R1330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1331">
       <c r="A1331" s="2" t="n">
@@ -74997,7 +75005,279 @@
       <c r="Q1331" t="n">
         <v>0</v>
       </c>
-      <c r="R1331" t="inlineStr"/>
+      <c r="R1331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>1718.25</v>
+      </c>
+      <c r="C1332" t="n">
+        <v>1765</v>
+      </c>
+      <c r="D1332" t="n">
+        <v>1707.150024414062</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>1750.400024414062</v>
+      </c>
+      <c r="F1332" t="n">
+        <v>1750.400024414062</v>
+      </c>
+      <c r="G1332" t="n">
+        <v>387867</v>
+      </c>
+      <c r="H1332" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1332" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1332" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1332" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1332" t="inlineStr"/>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>1772.699951171875</v>
+      </c>
+      <c r="C1333" t="n">
+        <v>1774.949951171875</v>
+      </c>
+      <c r="D1333" t="n">
+        <v>1728</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>1756.349975585938</v>
+      </c>
+      <c r="F1333" t="n">
+        <v>1756.349975585938</v>
+      </c>
+      <c r="G1333" t="n">
+        <v>636244</v>
+      </c>
+      <c r="H1333" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1333" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1333" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1333" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1333" t="inlineStr"/>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1334" t="n">
+        <v>1750</v>
+      </c>
+      <c r="C1334" t="n">
+        <v>1798</v>
+      </c>
+      <c r="D1334" t="n">
+        <v>1740.650024414062</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>1789.349975585938</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>1789.349975585938</v>
+      </c>
+      <c r="G1334" t="n">
+        <v>584091</v>
+      </c>
+      <c r="H1334" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1334" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1334" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1334" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1334" t="inlineStr"/>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1335" t="n">
+        <v>1803.5</v>
+      </c>
+      <c r="C1335" t="n">
+        <v>1849.949951171875</v>
+      </c>
+      <c r="D1335" t="n">
+        <v>1802.5</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>1838.050048828125</v>
+      </c>
+      <c r="F1335" t="n">
+        <v>1838.050048828125</v>
+      </c>
+      <c r="G1335" t="n">
+        <v>1070697</v>
+      </c>
+      <c r="H1335" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1335" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1335" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1335" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1335" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1335" t="inlineStr"/>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1336" t="n">
+        <v>1846</v>
+      </c>
+      <c r="C1336" t="n">
+        <v>1859.949951171875</v>
+      </c>
+      <c r="D1336" t="n">
+        <v>1816.25</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>1826.050048828125</v>
+      </c>
+      <c r="F1336" t="n">
+        <v>1826.050048828125</v>
+      </c>
+      <c r="G1336" t="n">
+        <v>424696</v>
+      </c>
+      <c r="H1336" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1336" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1336" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1336" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1336" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1336"/>
+  <dimension ref="A1:R1341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75061,7 +75061,9 @@
       <c r="Q1332" t="n">
         <v>0</v>
       </c>
-      <c r="R1332" t="inlineStr"/>
+      <c r="R1332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1333">
       <c r="A1333" s="2" t="n">
@@ -75115,7 +75117,9 @@
       <c r="Q1333" t="n">
         <v>0</v>
       </c>
-      <c r="R1333" t="inlineStr"/>
+      <c r="R1333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1334">
       <c r="A1334" s="2" t="n">
@@ -75169,7 +75173,9 @@
       <c r="Q1334" t="n">
         <v>0</v>
       </c>
-      <c r="R1334" t="inlineStr"/>
+      <c r="R1334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1335">
       <c r="A1335" s="2" t="n">
@@ -75223,7 +75229,9 @@
       <c r="Q1335" t="n">
         <v>0</v>
       </c>
-      <c r="R1335" t="inlineStr"/>
+      <c r="R1335" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1336">
       <c r="A1336" s="2" t="n">
@@ -75277,7 +75285,279 @@
       <c r="Q1336" t="n">
         <v>0</v>
       </c>
-      <c r="R1336" t="inlineStr"/>
+      <c r="R1336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1337" t="n">
+        <v>1832</v>
+      </c>
+      <c r="C1337" t="n">
+        <v>1832</v>
+      </c>
+      <c r="D1337" t="n">
+        <v>1748.050048828125</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>1757.849975585938</v>
+      </c>
+      <c r="F1337" t="n">
+        <v>1757.849975585938</v>
+      </c>
+      <c r="G1337" t="n">
+        <v>724800</v>
+      </c>
+      <c r="H1337" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1337" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1337" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1337" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1337" t="inlineStr"/>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1338" t="n">
+        <v>1758</v>
+      </c>
+      <c r="C1338" t="n">
+        <v>1768.449951171875</v>
+      </c>
+      <c r="D1338" t="n">
+        <v>1731.050048828125</v>
+      </c>
+      <c r="E1338" t="n">
+        <v>1741.150024414062</v>
+      </c>
+      <c r="F1338" t="n">
+        <v>1741.150024414062</v>
+      </c>
+      <c r="G1338" t="n">
+        <v>613375</v>
+      </c>
+      <c r="H1338" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1338" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1338" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1338" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1338" t="inlineStr"/>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B1339" t="n">
+        <v>1740</v>
+      </c>
+      <c r="C1339" t="n">
+        <v>1759.400024414062</v>
+      </c>
+      <c r="D1339" t="n">
+        <v>1716</v>
+      </c>
+      <c r="E1339" t="n">
+        <v>1727.25</v>
+      </c>
+      <c r="F1339" t="n">
+        <v>1727.25</v>
+      </c>
+      <c r="G1339" t="n">
+        <v>578778</v>
+      </c>
+      <c r="H1339" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1339" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1339" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1339" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1339" t="inlineStr"/>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>1740</v>
+      </c>
+      <c r="C1340" t="n">
+        <v>1751</v>
+      </c>
+      <c r="D1340" t="n">
+        <v>1666.099975585938</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>1676.449951171875</v>
+      </c>
+      <c r="F1340" t="n">
+        <v>1676.449951171875</v>
+      </c>
+      <c r="G1340" t="n">
+        <v>764506</v>
+      </c>
+      <c r="H1340" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1340" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1340" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1340" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1340" t="inlineStr"/>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1341" t="n">
+        <v>1681.5</v>
+      </c>
+      <c r="C1341" t="n">
+        <v>1695.900024414062</v>
+      </c>
+      <c r="D1341" t="n">
+        <v>1626.099975585938</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>1662</v>
+      </c>
+      <c r="F1341" t="n">
+        <v>1662</v>
+      </c>
+      <c r="G1341" t="n">
+        <v>1393154</v>
+      </c>
+      <c r="H1341" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1341" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1341" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1341" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1341" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1341"/>
+  <dimension ref="A1:R1346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75341,7 +75341,9 @@
       <c r="Q1337" t="n">
         <v>0</v>
       </c>
-      <c r="R1337" t="inlineStr"/>
+      <c r="R1337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1338">
       <c r="A1338" s="2" t="n">
@@ -75395,7 +75397,9 @@
       <c r="Q1338" t="n">
         <v>0</v>
       </c>
-      <c r="R1338" t="inlineStr"/>
+      <c r="R1338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1339">
       <c r="A1339" s="2" t="n">
@@ -75449,7 +75453,9 @@
       <c r="Q1339" t="n">
         <v>0</v>
       </c>
-      <c r="R1339" t="inlineStr"/>
+      <c r="R1339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1340">
       <c r="A1340" s="2" t="n">
@@ -75503,7 +75509,9 @@
       <c r="Q1340" t="n">
         <v>0</v>
       </c>
-      <c r="R1340" t="inlineStr"/>
+      <c r="R1340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1341">
       <c r="A1341" s="2" t="n">
@@ -75557,7 +75565,279 @@
       <c r="Q1341" t="n">
         <v>0</v>
       </c>
-      <c r="R1341" t="inlineStr"/>
+      <c r="R1341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1342" t="n">
+        <v>1680</v>
+      </c>
+      <c r="C1342" t="n">
+        <v>1696.650024414062</v>
+      </c>
+      <c r="D1342" t="n">
+        <v>1648</v>
+      </c>
+      <c r="E1342" t="n">
+        <v>1692.900024414062</v>
+      </c>
+      <c r="F1342" t="n">
+        <v>1692.900024414062</v>
+      </c>
+      <c r="G1342" t="n">
+        <v>921087</v>
+      </c>
+      <c r="H1342" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1342" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1342" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1342" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1342" t="inlineStr"/>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1343" t="n">
+        <v>1698</v>
+      </c>
+      <c r="C1343" t="n">
+        <v>1701.900024414062</v>
+      </c>
+      <c r="D1343" t="n">
+        <v>1630</v>
+      </c>
+      <c r="E1343" t="n">
+        <v>1660.900024414062</v>
+      </c>
+      <c r="F1343" t="n">
+        <v>1660.900024414062</v>
+      </c>
+      <c r="G1343" t="n">
+        <v>2478741</v>
+      </c>
+      <c r="H1343" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1343" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1343" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1343" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1343" t="inlineStr"/>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B1344" t="n">
+        <v>1672</v>
+      </c>
+      <c r="C1344" t="n">
+        <v>1678.349975585938</v>
+      </c>
+      <c r="D1344" t="n">
+        <v>1650.150024414062</v>
+      </c>
+      <c r="E1344" t="n">
+        <v>1654.75</v>
+      </c>
+      <c r="F1344" t="n">
+        <v>1654.75</v>
+      </c>
+      <c r="G1344" t="n">
+        <v>793279</v>
+      </c>
+      <c r="H1344" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1344" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1344" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1344" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1344" t="inlineStr"/>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B1345" t="n">
+        <v>1654.800048828125</v>
+      </c>
+      <c r="C1345" t="n">
+        <v>1686.25</v>
+      </c>
+      <c r="D1345" t="n">
+        <v>1654.800048828125</v>
+      </c>
+      <c r="E1345" t="n">
+        <v>1682.449951171875</v>
+      </c>
+      <c r="F1345" t="n">
+        <v>1682.449951171875</v>
+      </c>
+      <c r="G1345" t="n">
+        <v>515725</v>
+      </c>
+      <c r="H1345" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1345" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1345" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1345" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1345" t="inlineStr"/>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1346" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C1346" t="n">
+        <v>1713.699951171875</v>
+      </c>
+      <c r="D1346" t="n">
+        <v>1661</v>
+      </c>
+      <c r="E1346" t="n">
+        <v>1671</v>
+      </c>
+      <c r="F1346" t="n">
+        <v>1671</v>
+      </c>
+      <c r="G1346" t="n">
+        <v>931898</v>
+      </c>
+      <c r="H1346" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1346" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1346" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1346" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1346" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1346"/>
+  <dimension ref="A1:R1350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75621,7 +75621,9 @@
       <c r="Q1342" t="n">
         <v>0</v>
       </c>
-      <c r="R1342" t="inlineStr"/>
+      <c r="R1342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1343">
       <c r="A1343" s="2" t="n">
@@ -75675,7 +75677,9 @@
       <c r="Q1343" t="n">
         <v>0</v>
       </c>
-      <c r="R1343" t="inlineStr"/>
+      <c r="R1343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1344">
       <c r="A1344" s="2" t="n">
@@ -75729,7 +75733,9 @@
       <c r="Q1344" t="n">
         <v>0</v>
       </c>
-      <c r="R1344" t="inlineStr"/>
+      <c r="R1344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1345">
       <c r="A1345" s="2" t="n">
@@ -75783,7 +75789,9 @@
       <c r="Q1345" t="n">
         <v>0</v>
       </c>
-      <c r="R1345" t="inlineStr"/>
+      <c r="R1345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1346">
       <c r="A1346" s="2" t="n">
@@ -75837,7 +75845,225 @@
       <c r="Q1346" t="n">
         <v>0</v>
       </c>
-      <c r="R1346" t="inlineStr"/>
+      <c r="R1346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1347" t="n">
+        <v>1637.800048828125</v>
+      </c>
+      <c r="C1347" t="n">
+        <v>1652.650024414062</v>
+      </c>
+      <c r="D1347" t="n">
+        <v>1625</v>
+      </c>
+      <c r="E1347" t="n">
+        <v>1628</v>
+      </c>
+      <c r="F1347" t="n">
+        <v>1628</v>
+      </c>
+      <c r="G1347" t="n">
+        <v>990112</v>
+      </c>
+      <c r="H1347" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1347" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1347" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1347" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1347" t="inlineStr"/>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1348" t="n">
+        <v>1641.5</v>
+      </c>
+      <c r="C1348" t="n">
+        <v>1675</v>
+      </c>
+      <c r="D1348" t="n">
+        <v>1628.300048828125</v>
+      </c>
+      <c r="E1348" t="n">
+        <v>1672.5</v>
+      </c>
+      <c r="F1348" t="n">
+        <v>1672.5</v>
+      </c>
+      <c r="G1348" t="n">
+        <v>581017</v>
+      </c>
+      <c r="H1348" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1348" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1348" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1348" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1348" t="inlineStr"/>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B1349" t="n">
+        <v>1667.550048828125</v>
+      </c>
+      <c r="C1349" t="n">
+        <v>1713.300048828125</v>
+      </c>
+      <c r="D1349" t="n">
+        <v>1640.050048828125</v>
+      </c>
+      <c r="E1349" t="n">
+        <v>1676.050048828125</v>
+      </c>
+      <c r="F1349" t="n">
+        <v>1676.050048828125</v>
+      </c>
+      <c r="G1349" t="n">
+        <v>2440970</v>
+      </c>
+      <c r="H1349" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1349" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1349" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1349" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1349" t="inlineStr"/>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1350" t="n">
+        <v>1674.099975585938</v>
+      </c>
+      <c r="C1350" t="n">
+        <v>1697.400024414062</v>
+      </c>
+      <c r="D1350" t="n">
+        <v>1643.75</v>
+      </c>
+      <c r="E1350" t="n">
+        <v>1691.25</v>
+      </c>
+      <c r="F1350" t="n">
+        <v>1691.25</v>
+      </c>
+      <c r="G1350" t="n">
+        <v>631375</v>
+      </c>
+      <c r="H1350" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1350" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1350" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1350" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1350" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1350"/>
+  <dimension ref="A1:R1355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75901,7 +75901,9 @@
       <c r="Q1347" t="n">
         <v>0</v>
       </c>
-      <c r="R1347" t="inlineStr"/>
+      <c r="R1347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1348">
       <c r="A1348" s="2" t="n">
@@ -75955,7 +75957,9 @@
       <c r="Q1348" t="n">
         <v>0</v>
       </c>
-      <c r="R1348" t="inlineStr"/>
+      <c r="R1348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1349">
       <c r="A1349" s="2" t="n">
@@ -76009,7 +76013,9 @@
       <c r="Q1349" t="n">
         <v>0</v>
       </c>
-      <c r="R1349" t="inlineStr"/>
+      <c r="R1349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1350">
       <c r="A1350" s="2" t="n">
@@ -76063,7 +76069,279 @@
       <c r="Q1350" t="n">
         <v>0</v>
       </c>
-      <c r="R1350" t="inlineStr"/>
+      <c r="R1350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1351" t="n">
+        <v>1699</v>
+      </c>
+      <c r="C1351" t="n">
+        <v>1719.599975585938</v>
+      </c>
+      <c r="D1351" t="n">
+        <v>1641.800048828125</v>
+      </c>
+      <c r="E1351" t="n">
+        <v>1705.949951171875</v>
+      </c>
+      <c r="F1351" t="n">
+        <v>1705.949951171875</v>
+      </c>
+      <c r="G1351" t="n">
+        <v>1056320</v>
+      </c>
+      <c r="H1351" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1351" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1351" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1351" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1351" t="inlineStr"/>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1352" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C1352" t="n">
+        <v>1727.449951171875</v>
+      </c>
+      <c r="D1352" t="n">
+        <v>1685.550048828125</v>
+      </c>
+      <c r="E1352" t="n">
+        <v>1714</v>
+      </c>
+      <c r="F1352" t="n">
+        <v>1714</v>
+      </c>
+      <c r="G1352" t="n">
+        <v>604128</v>
+      </c>
+      <c r="H1352" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1352" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1352" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1352" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1352" t="inlineStr"/>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B1353" t="n">
+        <v>1729.449951171875</v>
+      </c>
+      <c r="C1353" t="n">
+        <v>1767.849975585938</v>
+      </c>
+      <c r="D1353" t="n">
+        <v>1714.050048828125</v>
+      </c>
+      <c r="E1353" t="n">
+        <v>1741.550048828125</v>
+      </c>
+      <c r="F1353" t="n">
+        <v>1741.550048828125</v>
+      </c>
+      <c r="G1353" t="n">
+        <v>668805</v>
+      </c>
+      <c r="H1353" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1353" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1353" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1353" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1353" t="inlineStr"/>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B1354" t="n">
+        <v>1750</v>
+      </c>
+      <c r="C1354" t="n">
+        <v>1774.849975585938</v>
+      </c>
+      <c r="D1354" t="n">
+        <v>1725.400024414062</v>
+      </c>
+      <c r="E1354" t="n">
+        <v>1731.75</v>
+      </c>
+      <c r="F1354" t="n">
+        <v>1731.75</v>
+      </c>
+      <c r="G1354" t="n">
+        <v>500994</v>
+      </c>
+      <c r="H1354" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1354" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1354" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1354" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1354" t="inlineStr"/>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1355" t="n">
+        <v>1735</v>
+      </c>
+      <c r="C1355" t="n">
+        <v>1797</v>
+      </c>
+      <c r="D1355" t="n">
+        <v>1721.050048828125</v>
+      </c>
+      <c r="E1355" t="n">
+        <v>1789.050048828125</v>
+      </c>
+      <c r="F1355" t="n">
+        <v>1789.050048828125</v>
+      </c>
+      <c r="G1355" t="n">
+        <v>779542</v>
+      </c>
+      <c r="H1355" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1355" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1355" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1355" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1355" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1355"/>
+  <dimension ref="A1:R1360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75893,7 +75893,7 @@
         <v>40</v>
       </c>
       <c r="O1347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1347" t="n">
         <v>0</v>
@@ -76125,7 +76125,9 @@
       <c r="Q1351" t="n">
         <v>0</v>
       </c>
-      <c r="R1351" t="inlineStr"/>
+      <c r="R1351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1352">
       <c r="A1352" s="2" t="n">
@@ -76179,7 +76181,9 @@
       <c r="Q1352" t="n">
         <v>0</v>
       </c>
-      <c r="R1352" t="inlineStr"/>
+      <c r="R1352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1353">
       <c r="A1353" s="2" t="n">
@@ -76233,7 +76237,9 @@
       <c r="Q1353" t="n">
         <v>0</v>
       </c>
-      <c r="R1353" t="inlineStr"/>
+      <c r="R1353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1354">
       <c r="A1354" s="2" t="n">
@@ -76287,7 +76293,9 @@
       <c r="Q1354" t="n">
         <v>0</v>
       </c>
-      <c r="R1354" t="inlineStr"/>
+      <c r="R1354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1355">
       <c r="A1355" s="2" t="n">
@@ -76341,7 +76349,279 @@
       <c r="Q1355" t="n">
         <v>0</v>
       </c>
-      <c r="R1355" t="inlineStr"/>
+      <c r="R1355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1356" t="n">
+        <v>1790</v>
+      </c>
+      <c r="C1356" t="n">
+        <v>1801.75</v>
+      </c>
+      <c r="D1356" t="n">
+        <v>1758.050048828125</v>
+      </c>
+      <c r="E1356" t="n">
+        <v>1791.699951171875</v>
+      </c>
+      <c r="F1356" t="n">
+        <v>1791.699951171875</v>
+      </c>
+      <c r="G1356" t="n">
+        <v>395373</v>
+      </c>
+      <c r="H1356" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1356" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1356" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1356" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1356" t="inlineStr"/>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1357" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C1357" t="n">
+        <v>1801.199951171875</v>
+      </c>
+      <c r="D1357" t="n">
+        <v>1760.099975585938</v>
+      </c>
+      <c r="E1357" t="n">
+        <v>1790.25</v>
+      </c>
+      <c r="F1357" t="n">
+        <v>1790.25</v>
+      </c>
+      <c r="G1357" t="n">
+        <v>428986</v>
+      </c>
+      <c r="H1357" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1357" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1357" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1357" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1357" t="inlineStr"/>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B1358" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C1358" t="n">
+        <v>1815</v>
+      </c>
+      <c r="D1358" t="n">
+        <v>1750.050048828125</v>
+      </c>
+      <c r="E1358" t="n">
+        <v>1761.449951171875</v>
+      </c>
+      <c r="F1358" t="n">
+        <v>1761.449951171875</v>
+      </c>
+      <c r="G1358" t="n">
+        <v>498761</v>
+      </c>
+      <c r="H1358" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1358" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1358" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1358" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1358" t="inlineStr"/>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B1359" t="n">
+        <v>1761.449951171875</v>
+      </c>
+      <c r="C1359" t="n">
+        <v>1822.900024414062</v>
+      </c>
+      <c r="D1359" t="n">
+        <v>1755</v>
+      </c>
+      <c r="E1359" t="n">
+        <v>1792.199951171875</v>
+      </c>
+      <c r="F1359" t="n">
+        <v>1792.199951171875</v>
+      </c>
+      <c r="G1359" t="n">
+        <v>863815</v>
+      </c>
+      <c r="H1359" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1359" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1359" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1359" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1359" t="inlineStr"/>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B1360" t="n">
+        <v>1780</v>
+      </c>
+      <c r="C1360" t="n">
+        <v>1802.449951171875</v>
+      </c>
+      <c r="D1360" t="n">
+        <v>1769</v>
+      </c>
+      <c r="E1360" t="n">
+        <v>1786.349975585938</v>
+      </c>
+      <c r="F1360" t="n">
+        <v>1786.349975585938</v>
+      </c>
+      <c r="G1360" t="n">
+        <v>344429</v>
+      </c>
+      <c r="H1360" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1360" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1360" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1360" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1360" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1360"/>
+  <dimension ref="A1:R1365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76405,7 +76405,9 @@
       <c r="Q1356" t="n">
         <v>0</v>
       </c>
-      <c r="R1356" t="inlineStr"/>
+      <c r="R1356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1357">
       <c r="A1357" s="2" t="n">
@@ -76459,7 +76461,9 @@
       <c r="Q1357" t="n">
         <v>0</v>
       </c>
-      <c r="R1357" t="inlineStr"/>
+      <c r="R1357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1358">
       <c r="A1358" s="2" t="n">
@@ -76513,7 +76517,9 @@
       <c r="Q1358" t="n">
         <v>0</v>
       </c>
-      <c r="R1358" t="inlineStr"/>
+      <c r="R1358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1359">
       <c r="A1359" s="2" t="n">
@@ -76567,7 +76573,9 @@
       <c r="Q1359" t="n">
         <v>0</v>
       </c>
-      <c r="R1359" t="inlineStr"/>
+      <c r="R1359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1360">
       <c r="A1360" s="2" t="n">
@@ -76621,7 +76629,279 @@
       <c r="Q1360" t="n">
         <v>0</v>
       </c>
-      <c r="R1360" t="inlineStr"/>
+      <c r="R1360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1361" t="n">
+        <v>1790</v>
+      </c>
+      <c r="C1361" t="n">
+        <v>1797.599975585938</v>
+      </c>
+      <c r="D1361" t="n">
+        <v>1715</v>
+      </c>
+      <c r="E1361" t="n">
+        <v>1726.050048828125</v>
+      </c>
+      <c r="F1361" t="n">
+        <v>1726.050048828125</v>
+      </c>
+      <c r="G1361" t="n">
+        <v>512449</v>
+      </c>
+      <c r="H1361" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1361" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1361" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1361" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1361" t="inlineStr"/>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1362" t="n">
+        <v>1734.800048828125</v>
+      </c>
+      <c r="C1362" t="n">
+        <v>1744.949951171875</v>
+      </c>
+      <c r="D1362" t="n">
+        <v>1681</v>
+      </c>
+      <c r="E1362" t="n">
+        <v>1689.900024414062</v>
+      </c>
+      <c r="F1362" t="n">
+        <v>1689.900024414062</v>
+      </c>
+      <c r="G1362" t="n">
+        <v>719299</v>
+      </c>
+      <c r="H1362" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1362" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1362" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1362" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1362" t="inlineStr"/>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1363" t="n">
+        <v>1672.449951171875</v>
+      </c>
+      <c r="C1363" t="n">
+        <v>1743.150024414062</v>
+      </c>
+      <c r="D1363" t="n">
+        <v>1621</v>
+      </c>
+      <c r="E1363" t="n">
+        <v>1634.550048828125</v>
+      </c>
+      <c r="F1363" t="n">
+        <v>1634.550048828125</v>
+      </c>
+      <c r="G1363" t="n">
+        <v>1734704</v>
+      </c>
+      <c r="H1363" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1363" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1363" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1363" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1363" t="inlineStr"/>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B1364" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C1364" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D1364" t="n">
+        <v>1393.449951171875</v>
+      </c>
+      <c r="E1364" t="n">
+        <v>1410.849975585938</v>
+      </c>
+      <c r="F1364" t="n">
+        <v>1410.849975585938</v>
+      </c>
+      <c r="G1364" t="n">
+        <v>10867415</v>
+      </c>
+      <c r="H1364" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1364" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1364" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1364" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1364" t="inlineStr"/>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B1365" t="n">
+        <v>1435</v>
+      </c>
+      <c r="C1365" t="n">
+        <v>1436</v>
+      </c>
+      <c r="D1365" t="n">
+        <v>1338.449951171875</v>
+      </c>
+      <c r="E1365" t="n">
+        <v>1373.599975585938</v>
+      </c>
+      <c r="F1365" t="n">
+        <v>1373.599975585938</v>
+      </c>
+      <c r="G1365" t="n">
+        <v>4221743</v>
+      </c>
+      <c r="H1365" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1365" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1365" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1365" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1365" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1365"/>
+  <dimension ref="A1:R1370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76565,7 +76565,7 @@
         <v>42</v>
       </c>
       <c r="O1359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1359" t="n">
         <v>0</v>
@@ -76685,7 +76685,9 @@
       <c r="Q1361" t="n">
         <v>0</v>
       </c>
-      <c r="R1361" t="inlineStr"/>
+      <c r="R1361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1362">
       <c r="A1362" s="2" t="n">
@@ -76739,7 +76741,9 @@
       <c r="Q1362" t="n">
         <v>0</v>
       </c>
-      <c r="R1362" t="inlineStr"/>
+      <c r="R1362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1363">
       <c r="A1363" s="2" t="n">
@@ -76793,7 +76797,9 @@
       <c r="Q1363" t="n">
         <v>0</v>
       </c>
-      <c r="R1363" t="inlineStr"/>
+      <c r="R1363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1364">
       <c r="A1364" s="2" t="n">
@@ -76847,7 +76853,9 @@
       <c r="Q1364" t="n">
         <v>0</v>
       </c>
-      <c r="R1364" t="inlineStr"/>
+      <c r="R1364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1365">
       <c r="A1365" s="2" t="n">
@@ -76901,7 +76909,279 @@
       <c r="Q1365" t="n">
         <v>0</v>
       </c>
-      <c r="R1365" t="inlineStr"/>
+      <c r="R1365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1366" t="n">
+        <v>1385.949951171875</v>
+      </c>
+      <c r="C1366" t="n">
+        <v>1423</v>
+      </c>
+      <c r="D1366" t="n">
+        <v>1372.050048828125</v>
+      </c>
+      <c r="E1366" t="n">
+        <v>1386.25</v>
+      </c>
+      <c r="F1366" t="n">
+        <v>1386.25</v>
+      </c>
+      <c r="G1366" t="n">
+        <v>1600468</v>
+      </c>
+      <c r="H1366" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1366" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1366" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1366" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1366" t="inlineStr"/>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B1367" t="n">
+        <v>1385.949951171875</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>1385.949951171875</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>1309.050048828125</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>1368.75</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>1368.75</v>
+      </c>
+      <c r="G1367" t="n">
+        <v>3516672</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1367" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1367" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1367" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1367" t="inlineStr"/>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B1368" t="n">
+        <v>1369</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>1408.349975585938</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>1361.25</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>1385.300048828125</v>
+      </c>
+      <c r="F1368" t="n">
+        <v>1385.300048828125</v>
+      </c>
+      <c r="G1368" t="n">
+        <v>1052040</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1368" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1368" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1368" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1368" t="inlineStr"/>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B1369" t="n">
+        <v>1395</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>1429.900024414062</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>1378.050048828125</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>1393.25</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>1393.25</v>
+      </c>
+      <c r="G1369" t="n">
+        <v>1490812</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1369" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1369" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1369" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1369" t="inlineStr"/>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1370" t="n">
+        <v>1425</v>
+      </c>
+      <c r="C1370" t="n">
+        <v>1428.25</v>
+      </c>
+      <c r="D1370" t="n">
+        <v>1416.550048828125</v>
+      </c>
+      <c r="E1370" t="n">
+        <v>1424.25</v>
+      </c>
+      <c r="F1370" t="n">
+        <v>1424.25</v>
+      </c>
+      <c r="G1370" t="n">
+        <v>264364</v>
+      </c>
+      <c r="H1370" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1370" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1370" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1370" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1370" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1370" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1370" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1370"/>
+  <dimension ref="A1:R1375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76965,7 +76965,9 @@
       <c r="Q1366" t="n">
         <v>0</v>
       </c>
-      <c r="R1366" t="inlineStr"/>
+      <c r="R1366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1367">
       <c r="A1367" s="2" t="n">
@@ -77019,7 +77021,9 @@
       <c r="Q1367" t="n">
         <v>0</v>
       </c>
-      <c r="R1367" t="inlineStr"/>
+      <c r="R1367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1368">
       <c r="A1368" s="2" t="n">
@@ -77073,7 +77077,9 @@
       <c r="Q1368" t="n">
         <v>0</v>
       </c>
-      <c r="R1368" t="inlineStr"/>
+      <c r="R1368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1369">
       <c r="A1369" s="2" t="n">
@@ -77127,7 +77133,9 @@
       <c r="Q1369" t="n">
         <v>0</v>
       </c>
-      <c r="R1369" t="inlineStr"/>
+      <c r="R1369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1370">
       <c r="A1370" s="2" t="n">
@@ -77181,7 +77189,279 @@
       <c r="Q1370" t="n">
         <v>2</v>
       </c>
-      <c r="R1370" t="inlineStr"/>
+      <c r="R1370" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1371" t="n">
+        <v>1430.050048828125</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>1439.949951171875</v>
+      </c>
+      <c r="D1371" t="n">
+        <v>1390.5</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>1403.599975585938</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>1403.599975585938</v>
+      </c>
+      <c r="G1371" t="n">
+        <v>1188723</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1371" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1371" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1371" t="inlineStr"/>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>1411.050048828125</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>1422.5</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>1378</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>1390</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>1390</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>1105342</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1372" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1372" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1372" t="inlineStr"/>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B1373" t="n">
+        <v>1408.449951171875</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>1503.949951171875</v>
+      </c>
+      <c r="D1373" t="n">
+        <v>1394.800048828125</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>1488.050048828125</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>1488.050048828125</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>2696087</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1373" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1373" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1373" t="inlineStr"/>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B1374" t="n">
+        <v>1510.900024414062</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>1520</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>1435</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>1441.550048828125</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>1441.550048828125</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>1185243</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1374" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1374" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1374" t="inlineStr"/>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>1451.650024414062</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>1458.199951171875</v>
+      </c>
+      <c r="D1375" t="n">
+        <v>1416</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>1422.349975585938</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>1422.349975585938</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>669502</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1375" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1375" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1375" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1375"/>
+  <dimension ref="A1:R1379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77013,7 +77013,7 @@
         <v>44</v>
       </c>
       <c r="O1367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1367" t="n">
         <v>0</v>
@@ -77245,7 +77245,9 @@
       <c r="Q1371" t="n">
         <v>0</v>
       </c>
-      <c r="R1371" t="inlineStr"/>
+      <c r="R1371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1372">
       <c r="A1372" s="2" t="n">
@@ -77299,7 +77301,9 @@
       <c r="Q1372" t="n">
         <v>0</v>
       </c>
-      <c r="R1372" t="inlineStr"/>
+      <c r="R1372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1373">
       <c r="A1373" s="2" t="n">
@@ -77353,7 +77357,9 @@
       <c r="Q1373" t="n">
         <v>0</v>
       </c>
-      <c r="R1373" t="inlineStr"/>
+      <c r="R1373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1374">
       <c r="A1374" s="2" t="n">
@@ -77407,7 +77413,9 @@
       <c r="Q1374" t="n">
         <v>0</v>
       </c>
-      <c r="R1374" t="inlineStr"/>
+      <c r="R1374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1375">
       <c r="A1375" s="2" t="n">
@@ -77461,7 +77469,225 @@
       <c r="Q1375" t="n">
         <v>0</v>
       </c>
-      <c r="R1375" t="inlineStr"/>
+      <c r="R1375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1376" t="n">
+        <v>1422.349975585938</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>1424.949951171875</v>
+      </c>
+      <c r="D1376" t="n">
+        <v>1401</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>1407.449951171875</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>1407.449951171875</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>374499</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1376" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1376" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1376" t="inlineStr"/>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B1377" t="n">
+        <v>1430</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>1430.949951171875</v>
+      </c>
+      <c r="D1377" t="n">
+        <v>1385</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>1390.400024414062</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>1390.400024414062</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>503631</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1377" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1377" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1377" t="inlineStr"/>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B1378" t="n">
+        <v>1398</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>1447.449951171875</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>1339</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>1357.949951171875</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>1357.949951171875</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>1283088</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1378" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1378" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1378" t="inlineStr"/>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B1379" t="n">
+        <v>1355</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>1367.75</v>
+      </c>
+      <c r="D1379" t="n">
+        <v>1341</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>1356.949951171875</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>1356.949951171875</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>1185496</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1379" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1379" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1379" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1379"/>
+  <dimension ref="A1:R1383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77525,7 +77525,9 @@
       <c r="Q1376" t="n">
         <v>0</v>
       </c>
-      <c r="R1376" t="inlineStr"/>
+      <c r="R1376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1377">
       <c r="A1377" s="2" t="n">
@@ -77579,7 +77581,9 @@
       <c r="Q1377" t="n">
         <v>0</v>
       </c>
-      <c r="R1377" t="inlineStr"/>
+      <c r="R1377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1378">
       <c r="A1378" s="2" t="n">
@@ -77633,7 +77637,9 @@
       <c r="Q1378" t="n">
         <v>0</v>
       </c>
-      <c r="R1378" t="inlineStr"/>
+      <c r="R1378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1379">
       <c r="A1379" s="2" t="n">
@@ -77687,7 +77693,225 @@
       <c r="Q1379" t="n">
         <v>0</v>
       </c>
-      <c r="R1379" t="inlineStr"/>
+      <c r="R1379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1380" t="n">
+        <v>1350.25</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>1356.400024414062</v>
+      </c>
+      <c r="D1380" t="n">
+        <v>1323.25</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>1325.75</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>1325.75</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>864715</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1380" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1380" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1380" t="inlineStr"/>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B1381" t="n">
+        <v>1322.099975585938</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>1340</v>
+      </c>
+      <c r="D1381" t="n">
+        <v>1301.800048828125</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>1305.199951171875</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>1305.199951171875</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>1566382</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1381" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1381" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1381" t="inlineStr"/>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B1382" t="n">
+        <v>1308.449951171875</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>1321.300048828125</v>
+      </c>
+      <c r="D1382" t="n">
+        <v>1283.25</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>1290.199951171875</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>1290.199951171875</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>1017236</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1382" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1382" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1382" t="inlineStr"/>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B1383" t="n">
+        <v>1285.050048828125</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>1316.400024414062</v>
+      </c>
+      <c r="D1383" t="n">
+        <v>1285.050048828125</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>1308.449951171875</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>1308.449951171875</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>1208036</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1383" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1383" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1383" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1383"/>
+  <dimension ref="A1:R1388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77749,7 +77749,9 @@
       <c r="Q1380" t="n">
         <v>0</v>
       </c>
-      <c r="R1380" t="inlineStr"/>
+      <c r="R1380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1381">
       <c r="A1381" s="2" t="n">
@@ -77803,7 +77805,9 @@
       <c r="Q1381" t="n">
         <v>0</v>
       </c>
-      <c r="R1381" t="inlineStr"/>
+      <c r="R1381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1382">
       <c r="A1382" s="2" t="n">
@@ -77857,7 +77861,9 @@
       <c r="Q1382" t="n">
         <v>0</v>
       </c>
-      <c r="R1382" t="inlineStr"/>
+      <c r="R1382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1383">
       <c r="A1383" s="2" t="n">
@@ -77911,7 +77917,279 @@
       <c r="Q1383" t="n">
         <v>0</v>
       </c>
-      <c r="R1383" t="inlineStr"/>
+      <c r="R1383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1384" t="n">
+        <v>1308.449951171875</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>1378.800048828125</v>
+      </c>
+      <c r="D1384" t="n">
+        <v>1308.449951171875</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>1366.199951171875</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>1366.199951171875</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>1165869</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1384" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1384" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1384" t="inlineStr"/>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B1385" t="n">
+        <v>1375</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>1419.949951171875</v>
+      </c>
+      <c r="D1385" t="n">
+        <v>1366.349975585938</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>1391.349975585938</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>1391.349975585938</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>1315079</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1385" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1385" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1385" t="inlineStr"/>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B1386" t="n">
+        <v>1405</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>1424.5</v>
+      </c>
+      <c r="D1386" t="n">
+        <v>1377.949951171875</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>1413.25</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>1413.25</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>1031365</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1386" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1386" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1386" t="inlineStr"/>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B1387" t="n">
+        <v>1420</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>1422.849975585938</v>
+      </c>
+      <c r="D1387" t="n">
+        <v>1396.099975585938</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>1411.099975585938</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>1411.099975585938</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>933891</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1387" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1387" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1387" t="inlineStr"/>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B1388" t="n">
+        <v>1402</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>1409</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>1356</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>1368.800048828125</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>1368.800048828125</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>1812922</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1388" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1388" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1388" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1388"/>
+  <dimension ref="A1:R1392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77853,7 +77853,7 @@
         <v>47</v>
       </c>
       <c r="O1382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1382" t="n">
         <v>0</v>
@@ -77973,7 +77973,9 @@
       <c r="Q1384" t="n">
         <v>0</v>
       </c>
-      <c r="R1384" t="inlineStr"/>
+      <c r="R1384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1385">
       <c r="A1385" s="2" t="n">
@@ -78027,7 +78029,9 @@
       <c r="Q1385" t="n">
         <v>0</v>
       </c>
-      <c r="R1385" t="inlineStr"/>
+      <c r="R1385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1386">
       <c r="A1386" s="2" t="n">
@@ -78081,7 +78085,9 @@
       <c r="Q1386" t="n">
         <v>0</v>
       </c>
-      <c r="R1386" t="inlineStr"/>
+      <c r="R1386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1387">
       <c r="A1387" s="2" t="n">
@@ -78135,7 +78141,9 @@
       <c r="Q1387" t="n">
         <v>0</v>
       </c>
-      <c r="R1387" t="inlineStr"/>
+      <c r="R1387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1388">
       <c r="A1388" s="2" t="n">
@@ -78189,7 +78197,225 @@
       <c r="Q1388" t="n">
         <v>0</v>
       </c>
-      <c r="R1388" t="inlineStr"/>
+      <c r="R1388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1389" t="n">
+        <v>1361</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>1369.849975585938</v>
+      </c>
+      <c r="D1389" t="n">
+        <v>1340</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>1341.25</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>1341.25</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>1447488</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1389" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1389" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1389" t="inlineStr"/>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B1390" t="n">
+        <v>1374.849975585938</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>1443.900024414062</v>
+      </c>
+      <c r="D1390" t="n">
+        <v>1365.75</v>
+      </c>
+      <c r="E1390" t="n">
+        <v>1430.699951171875</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>1430.699951171875</v>
+      </c>
+      <c r="G1390" t="n">
+        <v>5284048</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1390" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1390" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1390" t="inlineStr"/>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B1391" t="n">
+        <v>1450</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>1463</v>
+      </c>
+      <c r="D1391" t="n">
+        <v>1426.599975585938</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>1457.150024414062</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>1457.150024414062</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>2059361</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1391" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1391" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1391" t="inlineStr"/>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B1392" t="n">
+        <v>1464.5</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>1498</v>
+      </c>
+      <c r="D1392" t="n">
+        <v>1458.949951171875</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>1493.099975585938</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>1493.099975585938</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>2083417</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1392" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1392" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1392" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1392"/>
+  <dimension ref="A1:R1403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78253,7 +78253,9 @@
       <c r="Q1389" t="n">
         <v>0</v>
       </c>
-      <c r="R1389" t="inlineStr"/>
+      <c r="R1389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1390">
       <c r="A1390" s="2" t="n">
@@ -78307,7 +78309,9 @@
       <c r="Q1390" t="n">
         <v>0</v>
       </c>
-      <c r="R1390" t="inlineStr"/>
+      <c r="R1390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1391">
       <c r="A1391" s="2" t="n">
@@ -78361,7 +78365,9 @@
       <c r="Q1391" t="n">
         <v>0</v>
       </c>
-      <c r="R1391" t="inlineStr"/>
+      <c r="R1391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1392">
       <c r="A1392" s="2" t="n">
@@ -78415,7 +78421,581 @@
       <c r="Q1392" t="n">
         <v>0</v>
       </c>
-      <c r="R1392" t="inlineStr"/>
+      <c r="R1392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B1393" t="n">
+        <v>1499.900024414062</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>1503.75</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>1474.5</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>1481.099975585938</v>
+      </c>
+      <c r="F1393" t="inlineStr"/>
+      <c r="G1393" t="n">
+        <v>1481294</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1393" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1393" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1393" t="inlineStr"/>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>1482</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>1553.400024414062</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>1480.550048828125</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>1534.099975585938</v>
+      </c>
+      <c r="F1394" t="inlineStr"/>
+      <c r="G1394" t="n">
+        <v>2490954</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1394" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1394" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1394" t="inlineStr"/>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B1395" t="n">
+        <v>1540.050048828125</v>
+      </c>
+      <c r="C1395" t="n">
+        <v>1544.699951171875</v>
+      </c>
+      <c r="D1395" t="n">
+        <v>1518</v>
+      </c>
+      <c r="E1395" t="n">
+        <v>1538.800048828125</v>
+      </c>
+      <c r="F1395" t="inlineStr"/>
+      <c r="G1395" t="n">
+        <v>912142</v>
+      </c>
+      <c r="H1395" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1395" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1395" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1395" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1395" t="inlineStr"/>
+    </row>
+    <row r="1396">
+      <c r="A1396" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B1396" t="n">
+        <v>1542.300048828125</v>
+      </c>
+      <c r="C1396" t="n">
+        <v>1555.900024414062</v>
+      </c>
+      <c r="D1396" t="n">
+        <v>1527.050048828125</v>
+      </c>
+      <c r="E1396" t="n">
+        <v>1548.849975585938</v>
+      </c>
+      <c r="F1396" t="inlineStr"/>
+      <c r="G1396" t="n">
+        <v>816840</v>
+      </c>
+      <c r="H1396" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1396" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1396" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1396" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1396" t="inlineStr"/>
+    </row>
+    <row r="1397">
+      <c r="A1397" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B1397" t="n">
+        <v>1550</v>
+      </c>
+      <c r="C1397" t="n">
+        <v>1563.349975585938</v>
+      </c>
+      <c r="D1397" t="n">
+        <v>1532.25</v>
+      </c>
+      <c r="E1397" t="n">
+        <v>1541.199951171875</v>
+      </c>
+      <c r="F1397" t="inlineStr"/>
+      <c r="G1397" t="n">
+        <v>1055627</v>
+      </c>
+      <c r="H1397" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1397" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1397" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1397" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1397" t="inlineStr"/>
+    </row>
+    <row r="1398">
+      <c r="A1398" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B1398" t="n">
+        <v>1540.800048828125</v>
+      </c>
+      <c r="C1398" t="n">
+        <v>1545.050048828125</v>
+      </c>
+      <c r="D1398" t="n">
+        <v>1507.099975585938</v>
+      </c>
+      <c r="E1398" t="n">
+        <v>1533.099975585938</v>
+      </c>
+      <c r="F1398" t="inlineStr"/>
+      <c r="G1398" t="n">
+        <v>800589</v>
+      </c>
+      <c r="H1398" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1398" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1398" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1398" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1398" t="inlineStr"/>
+    </row>
+    <row r="1399">
+      <c r="A1399" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1399" t="n">
+        <v>1535</v>
+      </c>
+      <c r="C1399" t="n">
+        <v>1555</v>
+      </c>
+      <c r="D1399" t="n">
+        <v>1520.199951171875</v>
+      </c>
+      <c r="E1399" t="n">
+        <v>1534.349975585938</v>
+      </c>
+      <c r="F1399" t="inlineStr"/>
+      <c r="G1399" t="n">
+        <v>884651</v>
+      </c>
+      <c r="H1399" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1399" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1399" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1399" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1399" t="inlineStr"/>
+    </row>
+    <row r="1400">
+      <c r="A1400" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B1400" t="n">
+        <v>1534</v>
+      </c>
+      <c r="C1400" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D1400" t="n">
+        <v>1506.5</v>
+      </c>
+      <c r="E1400" t="n">
+        <v>1511.25</v>
+      </c>
+      <c r="F1400" t="inlineStr"/>
+      <c r="G1400" t="n">
+        <v>1006052</v>
+      </c>
+      <c r="H1400" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1400" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1400" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1400" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1400" t="inlineStr"/>
+    </row>
+    <row r="1401">
+      <c r="A1401" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B1401" t="n">
+        <v>1520</v>
+      </c>
+      <c r="C1401" t="n">
+        <v>1538.5</v>
+      </c>
+      <c r="D1401" t="n">
+        <v>1509.849975585938</v>
+      </c>
+      <c r="E1401" t="n">
+        <v>1520.650024414062</v>
+      </c>
+      <c r="F1401" t="inlineStr"/>
+      <c r="G1401" t="n">
+        <v>853116</v>
+      </c>
+      <c r="H1401" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1401" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1401" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1401" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1401" t="inlineStr"/>
+    </row>
+    <row r="1402">
+      <c r="A1402" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B1402" t="n">
+        <v>1465</v>
+      </c>
+      <c r="C1402" t="n">
+        <v>1522</v>
+      </c>
+      <c r="D1402" t="n">
+        <v>1465</v>
+      </c>
+      <c r="E1402" t="n">
+        <v>1513.150024414062</v>
+      </c>
+      <c r="F1402" t="inlineStr"/>
+      <c r="G1402" t="n">
+        <v>751957</v>
+      </c>
+      <c r="H1402" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1402" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1402" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1402" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1402" t="inlineStr"/>
+    </row>
+    <row r="1403">
+      <c r="A1403" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B1403" t="n">
+        <v>1516</v>
+      </c>
+      <c r="C1403" t="n">
+        <v>1535.900024414062</v>
+      </c>
+      <c r="D1403" t="n">
+        <v>1438.900024414062</v>
+      </c>
+      <c r="E1403" t="n">
+        <v>1451.25</v>
+      </c>
+      <c r="F1403" t="inlineStr"/>
+      <c r="G1403" t="n">
+        <v>1207976</v>
+      </c>
+      <c r="H1403" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1403" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1403" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1403" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1403" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1403"/>
+  <dimension ref="A1:R1407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78475,7 +78475,9 @@
       <c r="Q1393" t="n">
         <v>0</v>
       </c>
-      <c r="R1393" t="inlineStr"/>
+      <c r="R1393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1394">
       <c r="A1394" s="2" t="n">
@@ -78527,7 +78529,9 @@
       <c r="Q1394" t="n">
         <v>0</v>
       </c>
-      <c r="R1394" t="inlineStr"/>
+      <c r="R1394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1395">
       <c r="A1395" s="2" t="n">
@@ -78579,7 +78583,9 @@
       <c r="Q1395" t="n">
         <v>0</v>
       </c>
-      <c r="R1395" t="inlineStr"/>
+      <c r="R1395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1396">
       <c r="A1396" s="2" t="n">
@@ -78631,7 +78637,9 @@
       <c r="Q1396" t="n">
         <v>0</v>
       </c>
-      <c r="R1396" t="inlineStr"/>
+      <c r="R1396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1397">
       <c r="A1397" s="2" t="n">
@@ -78675,7 +78683,7 @@
         <v>50</v>
       </c>
       <c r="O1397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1397" t="n">
         <v>0</v>
@@ -78683,7 +78691,9 @@
       <c r="Q1397" t="n">
         <v>0</v>
       </c>
-      <c r="R1397" t="inlineStr"/>
+      <c r="R1397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1398">
       <c r="A1398" s="2" t="n">
@@ -78735,7 +78745,9 @@
       <c r="Q1398" t="n">
         <v>0</v>
       </c>
-      <c r="R1398" t="inlineStr"/>
+      <c r="R1398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1399">
       <c r="A1399" s="2" t="n">
@@ -78787,7 +78799,9 @@
       <c r="Q1399" t="n">
         <v>0</v>
       </c>
-      <c r="R1399" t="inlineStr"/>
+      <c r="R1399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1400">
       <c r="A1400" s="2" t="n">
@@ -78839,7 +78853,9 @@
       <c r="Q1400" t="n">
         <v>0</v>
       </c>
-      <c r="R1400" t="inlineStr"/>
+      <c r="R1400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1401">
       <c r="A1401" s="2" t="n">
@@ -78891,7 +78907,9 @@
       <c r="Q1401" t="n">
         <v>0</v>
       </c>
-      <c r="R1401" t="inlineStr"/>
+      <c r="R1401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1402">
       <c r="A1402" s="2" t="n">
@@ -78943,7 +78961,9 @@
       <c r="Q1402" t="n">
         <v>0</v>
       </c>
-      <c r="R1402" t="inlineStr"/>
+      <c r="R1402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1403">
       <c r="A1403" s="2" t="n">
@@ -78995,7 +79015,217 @@
       <c r="Q1403" t="n">
         <v>0</v>
       </c>
-      <c r="R1403" t="inlineStr"/>
+      <c r="R1403" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1404" t="n">
+        <v>1467.400024414062</v>
+      </c>
+      <c r="C1404" t="n">
+        <v>1474.849975585938</v>
+      </c>
+      <c r="D1404" t="n">
+        <v>1408.050048828125</v>
+      </c>
+      <c r="E1404" t="n">
+        <v>1415.550048828125</v>
+      </c>
+      <c r="F1404" t="inlineStr"/>
+      <c r="G1404" t="n">
+        <v>935669</v>
+      </c>
+      <c r="H1404" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1404" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1404" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1404" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1404" t="inlineStr"/>
+    </row>
+    <row r="1405">
+      <c r="A1405" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B1405" t="n">
+        <v>1415.150024414062</v>
+      </c>
+      <c r="C1405" t="n">
+        <v>1446</v>
+      </c>
+      <c r="D1405" t="n">
+        <v>1415</v>
+      </c>
+      <c r="E1405" t="n">
+        <v>1433.300048828125</v>
+      </c>
+      <c r="F1405" t="inlineStr"/>
+      <c r="G1405" t="n">
+        <v>530205</v>
+      </c>
+      <c r="H1405" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1405" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1405" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1405" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1405" t="inlineStr"/>
+    </row>
+    <row r="1406">
+      <c r="A1406" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B1406" t="n">
+        <v>1433</v>
+      </c>
+      <c r="C1406" t="n">
+        <v>1456.650024414062</v>
+      </c>
+      <c r="D1406" t="n">
+        <v>1426.599975585938</v>
+      </c>
+      <c r="E1406" t="n">
+        <v>1452.199951171875</v>
+      </c>
+      <c r="F1406" t="inlineStr"/>
+      <c r="G1406" t="n">
+        <v>817454</v>
+      </c>
+      <c r="H1406" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1406" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1406" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1406" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1406" t="inlineStr"/>
+    </row>
+    <row r="1407">
+      <c r="A1407" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B1407" t="n">
+        <v>1456</v>
+      </c>
+      <c r="C1407" t="n">
+        <v>1471.5</v>
+      </c>
+      <c r="D1407" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E1407" t="n">
+        <v>1460.599975585938</v>
+      </c>
+      <c r="F1407" t="inlineStr"/>
+      <c r="G1407" t="n">
+        <v>411607</v>
+      </c>
+      <c r="H1407" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1407" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1407" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1407" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1407" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1407"/>
+  <dimension ref="A1:R1412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79069,7 +79069,9 @@
       <c r="Q1404" t="n">
         <v>0</v>
       </c>
-      <c r="R1404" t="inlineStr"/>
+      <c r="R1404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1405">
       <c r="A1405" s="2" t="n">
@@ -79121,7 +79123,9 @@
       <c r="Q1405" t="n">
         <v>0</v>
       </c>
-      <c r="R1405" t="inlineStr"/>
+      <c r="R1405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1406">
       <c r="A1406" s="2" t="n">
@@ -79173,7 +79177,9 @@
       <c r="Q1406" t="n">
         <v>0</v>
       </c>
-      <c r="R1406" t="inlineStr"/>
+      <c r="R1406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1407">
       <c r="A1407" s="2" t="n">
@@ -79225,7 +79231,269 @@
       <c r="Q1407" t="n">
         <v>0</v>
       </c>
-      <c r="R1407" t="inlineStr"/>
+      <c r="R1407" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1408" t="n">
+        <v>1461</v>
+      </c>
+      <c r="C1408" t="n">
+        <v>1480.900024414062</v>
+      </c>
+      <c r="D1408" t="n">
+        <v>1438</v>
+      </c>
+      <c r="E1408" t="n">
+        <v>1470.150024414062</v>
+      </c>
+      <c r="F1408" t="inlineStr"/>
+      <c r="G1408" t="n">
+        <v>829082</v>
+      </c>
+      <c r="H1408" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1408" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1408" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1408" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1408" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1408" t="inlineStr"/>
+    </row>
+    <row r="1409">
+      <c r="A1409" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1409" t="n">
+        <v>1468.800048828125</v>
+      </c>
+      <c r="C1409" t="n">
+        <v>1468.800048828125</v>
+      </c>
+      <c r="D1409" t="n">
+        <v>1428.050048828125</v>
+      </c>
+      <c r="E1409" t="n">
+        <v>1464.699951171875</v>
+      </c>
+      <c r="F1409" t="inlineStr"/>
+      <c r="G1409" t="n">
+        <v>615533</v>
+      </c>
+      <c r="H1409" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1409" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1409" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1409" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1409" t="inlineStr"/>
+    </row>
+    <row r="1410">
+      <c r="A1410" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1410" t="n">
+        <v>1468</v>
+      </c>
+      <c r="C1410" t="n">
+        <v>1499.25</v>
+      </c>
+      <c r="D1410" t="n">
+        <v>1458.5</v>
+      </c>
+      <c r="E1410" t="n">
+        <v>1493.099975585938</v>
+      </c>
+      <c r="F1410" t="inlineStr"/>
+      <c r="G1410" t="n">
+        <v>966551</v>
+      </c>
+      <c r="H1410" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1410" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1410" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1410" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1410" t="inlineStr"/>
+    </row>
+    <row r="1411">
+      <c r="A1411" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B1411" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C1411" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D1411" t="n">
+        <v>1472.900024414062</v>
+      </c>
+      <c r="E1411" t="n">
+        <v>1484.550048828125</v>
+      </c>
+      <c r="F1411" t="inlineStr"/>
+      <c r="G1411" t="n">
+        <v>507047</v>
+      </c>
+      <c r="H1411" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1411" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1411" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1411" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1411" t="inlineStr"/>
+    </row>
+    <row r="1412">
+      <c r="A1412" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B1412" t="n">
+        <v>1488.900024414062</v>
+      </c>
+      <c r="C1412" t="n">
+        <v>1493.949951171875</v>
+      </c>
+      <c r="D1412" t="n">
+        <v>1444</v>
+      </c>
+      <c r="E1412" t="n">
+        <v>1449.949951171875</v>
+      </c>
+      <c r="F1412" t="inlineStr"/>
+      <c r="G1412" t="n">
+        <v>854926</v>
+      </c>
+      <c r="H1412" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1412" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1412" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1412" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1412" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1412"/>
+  <dimension ref="A1:R1414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79061,7 +79061,7 @@
         <v>52</v>
       </c>
       <c r="O1404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1404" t="n">
         <v>0</v>
@@ -79285,7 +79285,9 @@
       <c r="Q1408" t="n">
         <v>2</v>
       </c>
-      <c r="R1408" t="inlineStr"/>
+      <c r="R1408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1409">
       <c r="A1409" s="2" t="n">
@@ -79337,7 +79339,9 @@
       <c r="Q1409" t="n">
         <v>0</v>
       </c>
-      <c r="R1409" t="inlineStr"/>
+      <c r="R1409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1410">
       <c r="A1410" s="2" t="n">
@@ -79389,7 +79393,9 @@
       <c r="Q1410" t="n">
         <v>0</v>
       </c>
-      <c r="R1410" t="inlineStr"/>
+      <c r="R1410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1411">
       <c r="A1411" s="2" t="n">
@@ -79441,7 +79447,9 @@
       <c r="Q1411" t="n">
         <v>0</v>
       </c>
-      <c r="R1411" t="inlineStr"/>
+      <c r="R1411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1412">
       <c r="A1412" s="2" t="n">
@@ -79493,7 +79501,113 @@
       <c r="Q1412" t="n">
         <v>0</v>
       </c>
-      <c r="R1412" t="inlineStr"/>
+      <c r="R1412" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1413" t="n">
+        <v>1454.650024414062</v>
+      </c>
+      <c r="C1413" t="n">
+        <v>1465.900024414062</v>
+      </c>
+      <c r="D1413" t="n">
+        <v>1432.650024414062</v>
+      </c>
+      <c r="E1413" t="n">
+        <v>1451.699951171875</v>
+      </c>
+      <c r="F1413" t="inlineStr"/>
+      <c r="G1413" t="n">
+        <v>1091378</v>
+      </c>
+      <c r="H1413" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1413" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1413" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1413" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1413" t="inlineStr"/>
+    </row>
+    <row r="1414">
+      <c r="A1414" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1414" t="n">
+        <v>1451.949951171875</v>
+      </c>
+      <c r="C1414" t="n">
+        <v>1483.849975585938</v>
+      </c>
+      <c r="D1414" t="n">
+        <v>1443.25</v>
+      </c>
+      <c r="E1414" t="n">
+        <v>1473.599975585938</v>
+      </c>
+      <c r="F1414" t="inlineStr"/>
+      <c r="G1414" t="n">
+        <v>876216</v>
+      </c>
+      <c r="H1414" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1414" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1414" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1414" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1414" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1414"/>
+  <dimension ref="A1:R1422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79555,7 +79555,9 @@
       <c r="Q1413" t="n">
         <v>0</v>
       </c>
-      <c r="R1413" t="inlineStr"/>
+      <c r="R1413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1414">
       <c r="A1414" s="2" t="n">
@@ -79607,7 +79609,425 @@
       <c r="Q1414" t="n">
         <v>0</v>
       </c>
-      <c r="R1414" t="inlineStr"/>
+      <c r="R1414" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B1415" t="n">
+        <v>1471.199951171875</v>
+      </c>
+      <c r="C1415" t="n">
+        <v>1473</v>
+      </c>
+      <c r="D1415" t="n">
+        <v>1418</v>
+      </c>
+      <c r="E1415" t="n">
+        <v>1428.300048828125</v>
+      </c>
+      <c r="F1415" t="inlineStr"/>
+      <c r="G1415" t="n">
+        <v>924955</v>
+      </c>
+      <c r="H1415" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1415" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1415" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1415" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1415" t="inlineStr"/>
+    </row>
+    <row r="1416">
+      <c r="A1416" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B1416" t="n">
+        <v>1435</v>
+      </c>
+      <c r="C1416" t="n">
+        <v>1454.599975585938</v>
+      </c>
+      <c r="D1416" t="n">
+        <v>1413.849975585938</v>
+      </c>
+      <c r="E1416" t="n">
+        <v>1430.150024414062</v>
+      </c>
+      <c r="F1416" t="inlineStr"/>
+      <c r="G1416" t="n">
+        <v>864314</v>
+      </c>
+      <c r="H1416" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1416" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1416" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1416" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1416" t="inlineStr"/>
+    </row>
+    <row r="1417">
+      <c r="A1417" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B1417" t="n">
+        <v>1399.949951171875</v>
+      </c>
+      <c r="C1417" t="n">
+        <v>1399.949951171875</v>
+      </c>
+      <c r="D1417" t="n">
+        <v>1357.949951171875</v>
+      </c>
+      <c r="E1417" t="n">
+        <v>1369.650024414062</v>
+      </c>
+      <c r="F1417" t="inlineStr"/>
+      <c r="G1417" t="n">
+        <v>1963609</v>
+      </c>
+      <c r="H1417" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1417" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1417" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1417" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1417" t="inlineStr"/>
+    </row>
+    <row r="1418">
+      <c r="A1418" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1418" t="n">
+        <v>1352</v>
+      </c>
+      <c r="C1418" t="n">
+        <v>1381.849975585938</v>
+      </c>
+      <c r="D1418" t="n">
+        <v>1302.550048828125</v>
+      </c>
+      <c r="E1418" t="n">
+        <v>1310.199951171875</v>
+      </c>
+      <c r="F1418" t="inlineStr"/>
+      <c r="G1418" t="n">
+        <v>1057072</v>
+      </c>
+      <c r="H1418" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1418" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1418" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1418" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1418" t="inlineStr"/>
+    </row>
+    <row r="1419">
+      <c r="A1419" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1419" t="n">
+        <v>1316.949951171875</v>
+      </c>
+      <c r="C1419" t="n">
+        <v>1335</v>
+      </c>
+      <c r="D1419" t="n">
+        <v>1307</v>
+      </c>
+      <c r="E1419" t="n">
+        <v>1323.949951171875</v>
+      </c>
+      <c r="F1419" t="inlineStr"/>
+      <c r="G1419" t="n">
+        <v>566294</v>
+      </c>
+      <c r="H1419" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1419" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1419" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1419" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1419" t="inlineStr"/>
+    </row>
+    <row r="1420">
+      <c r="A1420" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B1420" t="n">
+        <v>1343.800048828125</v>
+      </c>
+      <c r="C1420" t="n">
+        <v>1370</v>
+      </c>
+      <c r="D1420" t="n">
+        <v>1312.5</v>
+      </c>
+      <c r="E1420" t="n">
+        <v>1342.099975585938</v>
+      </c>
+      <c r="F1420" t="inlineStr"/>
+      <c r="G1420" t="n">
+        <v>640880</v>
+      </c>
+      <c r="H1420" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1420" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1420" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1420" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1420" t="inlineStr"/>
+    </row>
+    <row r="1421">
+      <c r="A1421" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B1421" t="n">
+        <v>1379</v>
+      </c>
+      <c r="C1421" t="n">
+        <v>1379</v>
+      </c>
+      <c r="D1421" t="n">
+        <v>1312.5</v>
+      </c>
+      <c r="E1421" t="n">
+        <v>1319.849975585938</v>
+      </c>
+      <c r="F1421" t="inlineStr"/>
+      <c r="G1421" t="n">
+        <v>1195665</v>
+      </c>
+      <c r="H1421" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1421" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1421" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1421" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1421" t="inlineStr"/>
+    </row>
+    <row r="1422">
+      <c r="A1422" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B1422" t="n">
+        <v>1327</v>
+      </c>
+      <c r="C1422" t="n">
+        <v>1327.599975585938</v>
+      </c>
+      <c r="D1422" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E1422" t="n">
+        <v>1314.650024414062</v>
+      </c>
+      <c r="F1422" t="inlineStr"/>
+      <c r="G1422" t="n">
+        <v>1228255</v>
+      </c>
+      <c r="H1422" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1422" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1422" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1422" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1422" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1422"/>
+  <dimension ref="A1:R1427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5059,7 +5059,7 @@
         <v>1</v>
       </c>
       <c r="Q82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R82" t="n">
         <v>1</v>
@@ -79663,7 +79663,9 @@
       <c r="Q1415" t="n">
         <v>0</v>
       </c>
-      <c r="R1415" t="inlineStr"/>
+      <c r="R1415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1416">
       <c r="A1416" s="2" t="n">
@@ -79715,7 +79717,9 @@
       <c r="Q1416" t="n">
         <v>0</v>
       </c>
-      <c r="R1416" t="inlineStr"/>
+      <c r="R1416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1417">
       <c r="A1417" s="2" t="n">
@@ -79767,7 +79771,9 @@
       <c r="Q1417" t="n">
         <v>0</v>
       </c>
-      <c r="R1417" t="inlineStr"/>
+      <c r="R1417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1418">
       <c r="A1418" s="2" t="n">
@@ -79819,7 +79825,9 @@
       <c r="Q1418" t="n">
         <v>0</v>
       </c>
-      <c r="R1418" t="inlineStr"/>
+      <c r="R1418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1419">
       <c r="A1419" s="2" t="n">
@@ -79871,7 +79879,9 @@
       <c r="Q1419" t="n">
         <v>0</v>
       </c>
-      <c r="R1419" t="inlineStr"/>
+      <c r="R1419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1420">
       <c r="A1420" s="2" t="n">
@@ -79923,7 +79933,9 @@
       <c r="Q1420" t="n">
         <v>0</v>
       </c>
-      <c r="R1420" t="inlineStr"/>
+      <c r="R1420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1421">
       <c r="A1421" s="2" t="n">
@@ -79975,7 +79987,9 @@
       <c r="Q1421" t="n">
         <v>0</v>
       </c>
-      <c r="R1421" t="inlineStr"/>
+      <c r="R1421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1422">
       <c r="A1422" s="2" t="n">
@@ -80027,7 +80041,269 @@
       <c r="Q1422" t="n">
         <v>0</v>
       </c>
-      <c r="R1422" t="inlineStr"/>
+      <c r="R1422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1423" t="n">
+        <v>1329.949951171875</v>
+      </c>
+      <c r="C1423" t="n">
+        <v>1344</v>
+      </c>
+      <c r="D1423" t="n">
+        <v>1305.900024414062</v>
+      </c>
+      <c r="E1423" t="n">
+        <v>1334.099975585938</v>
+      </c>
+      <c r="F1423" t="inlineStr"/>
+      <c r="G1423" t="n">
+        <v>696049</v>
+      </c>
+      <c r="H1423" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1423" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1423" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1423" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1423" t="inlineStr"/>
+    </row>
+    <row r="1424">
+      <c r="A1424" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B1424" t="n">
+        <v>1330</v>
+      </c>
+      <c r="C1424" t="n">
+        <v>1339</v>
+      </c>
+      <c r="D1424" t="n">
+        <v>1304</v>
+      </c>
+      <c r="E1424" t="n">
+        <v>1312.300048828125</v>
+      </c>
+      <c r="F1424" t="inlineStr"/>
+      <c r="G1424" t="n">
+        <v>781994</v>
+      </c>
+      <c r="H1424" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1424" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1424" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1424" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1424" t="inlineStr"/>
+    </row>
+    <row r="1425">
+      <c r="A1425" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B1425" t="n">
+        <v>1320</v>
+      </c>
+      <c r="C1425" t="n">
+        <v>1326.400024414062</v>
+      </c>
+      <c r="D1425" t="n">
+        <v>1268.949951171875</v>
+      </c>
+      <c r="E1425" t="n">
+        <v>1295.199951171875</v>
+      </c>
+      <c r="F1425" t="inlineStr"/>
+      <c r="G1425" t="n">
+        <v>1085424</v>
+      </c>
+      <c r="H1425" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1425" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1425" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1425" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1425" t="inlineStr"/>
+    </row>
+    <row r="1426">
+      <c r="A1426" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B1426" t="n">
+        <v>1303.300048828125</v>
+      </c>
+      <c r="C1426" t="n">
+        <v>1364.849975585938</v>
+      </c>
+      <c r="D1426" t="n">
+        <v>1295.199951171875</v>
+      </c>
+      <c r="E1426" t="n">
+        <v>1344.699951171875</v>
+      </c>
+      <c r="F1426" t="inlineStr"/>
+      <c r="G1426" t="n">
+        <v>1519850</v>
+      </c>
+      <c r="H1426" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1426" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1426" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1426" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1426" t="inlineStr"/>
+    </row>
+    <row r="1427">
+      <c r="A1427" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B1427" t="n">
+        <v>1345</v>
+      </c>
+      <c r="C1427" t="n">
+        <v>1372.25</v>
+      </c>
+      <c r="D1427" t="n">
+        <v>1315.650024414062</v>
+      </c>
+      <c r="E1427" t="n">
+        <v>1322.900024414062</v>
+      </c>
+      <c r="F1427" t="inlineStr"/>
+      <c r="G1427" t="n">
+        <v>1437082</v>
+      </c>
+      <c r="H1427" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1427" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1427" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1427" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1427" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1427"/>
+  <dimension ref="A1:R1432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80095,7 +80095,9 @@
       <c r="Q1423" t="n">
         <v>0</v>
       </c>
-      <c r="R1423" t="inlineStr"/>
+      <c r="R1423" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1424">
       <c r="A1424" s="2" t="n">
@@ -80147,7 +80149,9 @@
       <c r="Q1424" t="n">
         <v>0</v>
       </c>
-      <c r="R1424" t="inlineStr"/>
+      <c r="R1424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1425">
       <c r="A1425" s="2" t="n">
@@ -80199,7 +80203,9 @@
       <c r="Q1425" t="n">
         <v>0</v>
       </c>
-      <c r="R1425" t="inlineStr"/>
+      <c r="R1425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1426">
       <c r="A1426" s="2" t="n">
@@ -80251,7 +80257,9 @@
       <c r="Q1426" t="n">
         <v>0</v>
       </c>
-      <c r="R1426" t="inlineStr"/>
+      <c r="R1426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1427">
       <c r="A1427" s="2" t="n">
@@ -80303,7 +80311,269 @@
       <c r="Q1427" t="n">
         <v>0</v>
       </c>
-      <c r="R1427" t="inlineStr"/>
+      <c r="R1427" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1428" t="n">
+        <v>1300</v>
+      </c>
+      <c r="C1428" t="n">
+        <v>1327.300048828125</v>
+      </c>
+      <c r="D1428" t="n">
+        <v>1276.75</v>
+      </c>
+      <c r="E1428" t="n">
+        <v>1301.5</v>
+      </c>
+      <c r="F1428" t="inlineStr"/>
+      <c r="G1428" t="n">
+        <v>2003383</v>
+      </c>
+      <c r="H1428" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1428" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1428" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1428" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1428" t="inlineStr"/>
+    </row>
+    <row r="1429">
+      <c r="A1429" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B1429" t="n">
+        <v>1291</v>
+      </c>
+      <c r="C1429" t="n">
+        <v>1313.550048828125</v>
+      </c>
+      <c r="D1429" t="n">
+        <v>1250</v>
+      </c>
+      <c r="E1429" t="n">
+        <v>1259.099975585938</v>
+      </c>
+      <c r="F1429" t="inlineStr"/>
+      <c r="G1429" t="n">
+        <v>1365219</v>
+      </c>
+      <c r="H1429" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1429" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1429" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1429" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1429" t="inlineStr"/>
+    </row>
+    <row r="1430">
+      <c r="A1430" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B1430" t="n">
+        <v>1263</v>
+      </c>
+      <c r="C1430" t="n">
+        <v>1404.900024414062</v>
+      </c>
+      <c r="D1430" t="n">
+        <v>1223.25</v>
+      </c>
+      <c r="E1430" t="n">
+        <v>1370.050048828125</v>
+      </c>
+      <c r="F1430" t="inlineStr"/>
+      <c r="G1430" t="n">
+        <v>9955740</v>
+      </c>
+      <c r="H1430" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1430" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1430" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1430" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1430" t="inlineStr"/>
+    </row>
+    <row r="1431">
+      <c r="A1431" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B1431" t="n">
+        <v>1420</v>
+      </c>
+      <c r="C1431" t="n">
+        <v>1479</v>
+      </c>
+      <c r="D1431" t="n">
+        <v>1410.650024414062</v>
+      </c>
+      <c r="E1431" t="n">
+        <v>1432.949951171875</v>
+      </c>
+      <c r="F1431" t="inlineStr"/>
+      <c r="G1431" t="n">
+        <v>5161240</v>
+      </c>
+      <c r="H1431" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1431" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1431" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1431" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1431" t="inlineStr"/>
+    </row>
+    <row r="1432">
+      <c r="A1432" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1432" t="n">
+        <v>1430</v>
+      </c>
+      <c r="C1432" t="n">
+        <v>1432</v>
+      </c>
+      <c r="D1432" t="n">
+        <v>1390.900024414062</v>
+      </c>
+      <c r="E1432" t="n">
+        <v>1409.199951171875</v>
+      </c>
+      <c r="F1432" t="inlineStr"/>
+      <c r="G1432" t="n">
+        <v>1618601</v>
+      </c>
+      <c r="H1432" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1432" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1432" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1432" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1432" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1432"/>
+  <dimension ref="A1:R1437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80365,7 +80365,9 @@
       <c r="Q1428" t="n">
         <v>0</v>
       </c>
-      <c r="R1428" t="inlineStr"/>
+      <c r="R1428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1429">
       <c r="A1429" s="2" t="n">
@@ -80417,7 +80419,9 @@
       <c r="Q1429" t="n">
         <v>0</v>
       </c>
-      <c r="R1429" t="inlineStr"/>
+      <c r="R1429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1430">
       <c r="A1430" s="2" t="n">
@@ -80469,7 +80473,9 @@
       <c r="Q1430" t="n">
         <v>0</v>
       </c>
-      <c r="R1430" t="inlineStr"/>
+      <c r="R1430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1431">
       <c r="A1431" s="2" t="n">
@@ -80521,7 +80527,9 @@
       <c r="Q1431" t="n">
         <v>0</v>
       </c>
-      <c r="R1431" t="inlineStr"/>
+      <c r="R1431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1432">
       <c r="A1432" s="2" t="n">
@@ -80573,7 +80581,269 @@
       <c r="Q1432" t="n">
         <v>0</v>
       </c>
-      <c r="R1432" t="inlineStr"/>
+      <c r="R1432" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1433" t="n">
+        <v>1417.488681337499</v>
+      </c>
+      <c r="C1433" t="n">
+        <v>1431.164403676238</v>
+      </c>
+      <c r="D1433" t="n">
+        <v>1390.087276344964</v>
+      </c>
+      <c r="E1433" t="n">
+        <v>1411.099975585938</v>
+      </c>
+      <c r="F1433" t="inlineStr"/>
+      <c r="G1433" t="n">
+        <v>828289</v>
+      </c>
+      <c r="H1433" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1433" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1433" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1433" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1433" t="inlineStr"/>
+    </row>
+    <row r="1434">
+      <c r="A1434" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B1434" t="n">
+        <v>1420</v>
+      </c>
+      <c r="C1434" t="n">
+        <v>1475</v>
+      </c>
+      <c r="D1434" t="n">
+        <v>1416.849975585938</v>
+      </c>
+      <c r="E1434" t="n">
+        <v>1419.800048828125</v>
+      </c>
+      <c r="F1434" t="inlineStr"/>
+      <c r="G1434" t="n">
+        <v>1523505</v>
+      </c>
+      <c r="H1434" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1434" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1434" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1434" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1434" t="inlineStr"/>
+    </row>
+    <row r="1435">
+      <c r="A1435" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B1435" t="n">
+        <v>1426.400024414062</v>
+      </c>
+      <c r="C1435" t="n">
+        <v>1441.300048828125</v>
+      </c>
+      <c r="D1435" t="n">
+        <v>1409.599975585938</v>
+      </c>
+      <c r="E1435" t="n">
+        <v>1431.349975585938</v>
+      </c>
+      <c r="F1435" t="inlineStr"/>
+      <c r="G1435" t="n">
+        <v>1390475</v>
+      </c>
+      <c r="H1435" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1435" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1435" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1435" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1435" t="inlineStr"/>
+    </row>
+    <row r="1436">
+      <c r="A1436" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B1436" t="n">
+        <v>1440</v>
+      </c>
+      <c r="C1436" t="n">
+        <v>1448.699951171875</v>
+      </c>
+      <c r="D1436" t="n">
+        <v>1422.449951171875</v>
+      </c>
+      <c r="E1436" t="n">
+        <v>1434.550048828125</v>
+      </c>
+      <c r="F1436" t="inlineStr"/>
+      <c r="G1436" t="n">
+        <v>489797</v>
+      </c>
+      <c r="H1436" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1436" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1436" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1436" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1436" t="inlineStr"/>
+    </row>
+    <row r="1437">
+      <c r="A1437" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B1437" t="n">
+        <v>1446</v>
+      </c>
+      <c r="C1437" t="n">
+        <v>1453.75</v>
+      </c>
+      <c r="D1437" t="n">
+        <v>1423.400024414062</v>
+      </c>
+      <c r="E1437" t="n">
+        <v>1447.800048828125</v>
+      </c>
+      <c r="F1437" t="inlineStr"/>
+      <c r="G1437" t="n">
+        <v>540931</v>
+      </c>
+      <c r="H1437" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1437" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1437" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1437" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1437" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1437"/>
+  <dimension ref="A1:R1439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80635,7 +80635,9 @@
       <c r="Q1433" t="n">
         <v>0</v>
       </c>
-      <c r="R1433" t="inlineStr"/>
+      <c r="R1433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1434">
       <c r="A1434" s="2" t="n">
@@ -80687,7 +80689,9 @@
       <c r="Q1434" t="n">
         <v>0</v>
       </c>
-      <c r="R1434" t="inlineStr"/>
+      <c r="R1434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1435">
       <c r="A1435" s="2" t="n">
@@ -80739,7 +80743,9 @@
       <c r="Q1435" t="n">
         <v>0</v>
       </c>
-      <c r="R1435" t="inlineStr"/>
+      <c r="R1435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1436">
       <c r="A1436" s="2" t="n">
@@ -80791,7 +80797,9 @@
       <c r="Q1436" t="n">
         <v>0</v>
       </c>
-      <c r="R1436" t="inlineStr"/>
+      <c r="R1436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1437">
       <c r="A1437" s="2" t="n">
@@ -80843,7 +80851,113 @@
       <c r="Q1437" t="n">
         <v>0</v>
       </c>
-      <c r="R1437" t="inlineStr"/>
+      <c r="R1437" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1438" t="n">
+        <v>1447.699951171875</v>
+      </c>
+      <c r="C1438" t="n">
+        <v>1454.550048828125</v>
+      </c>
+      <c r="D1438" t="n">
+        <v>1418</v>
+      </c>
+      <c r="E1438" t="n">
+        <v>1437.949951171875</v>
+      </c>
+      <c r="F1438" t="inlineStr"/>
+      <c r="G1438" t="n">
+        <v>467753</v>
+      </c>
+      <c r="H1438" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1438" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1438" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1438" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1438" t="inlineStr"/>
+    </row>
+    <row r="1439">
+      <c r="A1439" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B1439" t="n">
+        <v>1431.5</v>
+      </c>
+      <c r="C1439" t="n">
+        <v>1436.949951171875</v>
+      </c>
+      <c r="D1439" t="n">
+        <v>1362.5</v>
+      </c>
+      <c r="E1439" t="n">
+        <v>1380.349975585938</v>
+      </c>
+      <c r="F1439" t="inlineStr"/>
+      <c r="G1439" t="n">
+        <v>866310</v>
+      </c>
+      <c r="H1439" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1439" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1439" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1439" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1439" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1439"/>
+  <dimension ref="A1:R1451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6403,7 +6403,7 @@
         <v>2</v>
       </c>
       <c r="Q106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R106" t="n">
         <v>2</v>
@@ -80465,7 +80465,7 @@
         <v>5</v>
       </c>
       <c r="O1430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1430" t="n">
         <v>0</v>
@@ -80519,7 +80519,7 @@
         <v>5</v>
       </c>
       <c r="O1431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1431" t="n">
         <v>0</v>
@@ -80905,7 +80905,9 @@
       <c r="Q1438" t="n">
         <v>0</v>
       </c>
-      <c r="R1438" t="inlineStr"/>
+      <c r="R1438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1439">
       <c r="A1439" s="2" t="n">
@@ -80957,7 +80959,633 @@
       <c r="Q1439" t="n">
         <v>0</v>
       </c>
-      <c r="R1439" t="inlineStr"/>
+      <c r="R1439" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B1440" t="n">
+        <v>1380.349975585938</v>
+      </c>
+      <c r="C1440" t="n">
+        <v>1387.949951171875</v>
+      </c>
+      <c r="D1440" t="n">
+        <v>1322.349975585938</v>
+      </c>
+      <c r="E1440" t="n">
+        <v>1353.150024414062</v>
+      </c>
+      <c r="F1440" t="inlineStr"/>
+      <c r="G1440" t="n">
+        <v>962838</v>
+      </c>
+      <c r="H1440" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1440" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1440" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1440" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1440" t="inlineStr"/>
+    </row>
+    <row r="1441">
+      <c r="A1441" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B1441" t="n">
+        <v>1360</v>
+      </c>
+      <c r="C1441" t="n">
+        <v>1364.550048828125</v>
+      </c>
+      <c r="D1441" t="n">
+        <v>1332</v>
+      </c>
+      <c r="E1441" t="n">
+        <v>1340.349975585938</v>
+      </c>
+      <c r="F1441" t="inlineStr"/>
+      <c r="G1441" t="n">
+        <v>637262</v>
+      </c>
+      <c r="H1441" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1441" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1441" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1441" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1441" t="inlineStr"/>
+    </row>
+    <row r="1442">
+      <c r="A1442" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B1442" t="n">
+        <v>1341.900024414062</v>
+      </c>
+      <c r="C1442" t="n">
+        <v>1353.25</v>
+      </c>
+      <c r="D1442" t="n">
+        <v>1308.5</v>
+      </c>
+      <c r="E1442" t="n">
+        <v>1342.650024414062</v>
+      </c>
+      <c r="F1442" t="inlineStr"/>
+      <c r="G1442" t="n">
+        <v>595239</v>
+      </c>
+      <c r="H1442" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1442" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1442" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1442" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1442" t="inlineStr"/>
+    </row>
+    <row r="1443">
+      <c r="A1443" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1443" t="n">
+        <v>1341.050048828125</v>
+      </c>
+      <c r="C1443" t="n">
+        <v>1350.599975585938</v>
+      </c>
+      <c r="D1443" t="n">
+        <v>1304</v>
+      </c>
+      <c r="E1443" t="n">
+        <v>1310.400024414062</v>
+      </c>
+      <c r="F1443" t="inlineStr"/>
+      <c r="G1443" t="n">
+        <v>794453</v>
+      </c>
+      <c r="H1443" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1443" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1443" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1443" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1443" t="inlineStr"/>
+    </row>
+    <row r="1444">
+      <c r="A1444" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B1444" t="n">
+        <v>1305</v>
+      </c>
+      <c r="C1444" t="n">
+        <v>1333.300048828125</v>
+      </c>
+      <c r="D1444" t="n">
+        <v>1294</v>
+      </c>
+      <c r="E1444" t="n">
+        <v>1329.449951171875</v>
+      </c>
+      <c r="F1444" t="inlineStr"/>
+      <c r="G1444" t="n">
+        <v>537675</v>
+      </c>
+      <c r="H1444" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1444" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1444" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1444" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1444" t="inlineStr"/>
+    </row>
+    <row r="1445">
+      <c r="A1445" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B1445" t="n">
+        <v>1328.75</v>
+      </c>
+      <c r="C1445" t="n">
+        <v>1354.349975585938</v>
+      </c>
+      <c r="D1445" t="n">
+        <v>1316</v>
+      </c>
+      <c r="E1445" t="n">
+        <v>1336.25</v>
+      </c>
+      <c r="F1445" t="inlineStr"/>
+      <c r="G1445" t="n">
+        <v>497257</v>
+      </c>
+      <c r="H1445" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1445" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1445" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1445" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1445" t="inlineStr"/>
+    </row>
+    <row r="1446">
+      <c r="A1446" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B1446" t="n">
+        <v>1335.5</v>
+      </c>
+      <c r="C1446" t="n">
+        <v>1348.5</v>
+      </c>
+      <c r="D1446" t="n">
+        <v>1328.050048828125</v>
+      </c>
+      <c r="E1446" t="n">
+        <v>1342.050048828125</v>
+      </c>
+      <c r="F1446" t="inlineStr"/>
+      <c r="G1446" t="n">
+        <v>385983</v>
+      </c>
+      <c r="H1446" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1446" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1446" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1446" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1446" t="inlineStr"/>
+    </row>
+    <row r="1447">
+      <c r="A1447" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1447" t="n">
+        <v>1342</v>
+      </c>
+      <c r="C1447" t="n">
+        <v>1345</v>
+      </c>
+      <c r="D1447" t="n">
+        <v>1294</v>
+      </c>
+      <c r="E1447" t="n">
+        <v>1310.099975585938</v>
+      </c>
+      <c r="F1447" t="inlineStr"/>
+      <c r="G1447" t="n">
+        <v>1595171</v>
+      </c>
+      <c r="H1447" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1447" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1447" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1447" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1447" t="inlineStr"/>
+    </row>
+    <row r="1448">
+      <c r="A1448" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1448" t="n">
+        <v>1303.050048828125</v>
+      </c>
+      <c r="C1448" t="n">
+        <v>1303.550048828125</v>
+      </c>
+      <c r="D1448" t="n">
+        <v>1253.199951171875</v>
+      </c>
+      <c r="E1448" t="n">
+        <v>1281.699951171875</v>
+      </c>
+      <c r="F1448" t="inlineStr"/>
+      <c r="G1448" t="n">
+        <v>1341968</v>
+      </c>
+      <c r="H1448" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1448" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1448" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1448" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1448" t="inlineStr"/>
+    </row>
+    <row r="1449">
+      <c r="A1449" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B1449" t="n">
+        <v>1270.099975585938</v>
+      </c>
+      <c r="C1449" t="n">
+        <v>1295</v>
+      </c>
+      <c r="D1449" t="n">
+        <v>1265.050048828125</v>
+      </c>
+      <c r="E1449" t="n">
+        <v>1285.5</v>
+      </c>
+      <c r="F1449" t="inlineStr"/>
+      <c r="G1449" t="n">
+        <v>534756</v>
+      </c>
+      <c r="H1449" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1449" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1449" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1449" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1449" t="inlineStr"/>
+    </row>
+    <row r="1450">
+      <c r="A1450" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B1450" t="n">
+        <v>1292.900024414062</v>
+      </c>
+      <c r="C1450" t="n">
+        <v>1295.449951171875</v>
+      </c>
+      <c r="D1450" t="n">
+        <v>1240.550048828125</v>
+      </c>
+      <c r="E1450" t="n">
+        <v>1251.949951171875</v>
+      </c>
+      <c r="F1450" t="inlineStr"/>
+      <c r="G1450" t="n">
+        <v>530052</v>
+      </c>
+      <c r="H1450" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1450" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1450" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1450" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1450" t="inlineStr"/>
+    </row>
+    <row r="1451">
+      <c r="A1451" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B1451" t="n">
+        <v>1234</v>
+      </c>
+      <c r="C1451" t="n">
+        <v>1240.5</v>
+      </c>
+      <c r="D1451" t="n">
+        <v>1192</v>
+      </c>
+      <c r="E1451" t="n">
+        <v>1197.400024414062</v>
+      </c>
+      <c r="F1451" t="inlineStr"/>
+      <c r="G1451" t="n">
+        <v>979095</v>
+      </c>
+      <c r="H1451" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1451" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1451" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1451" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1451" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1451"/>
+  <dimension ref="A1:R1461"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80587,23 +80587,23 @@
     </row>
     <row r="1433">
       <c r="A1433" s="2" t="n">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="B1433" t="n">
-        <v>1417.488681337499</v>
+        <v>1412.49755936929</v>
       </c>
       <c r="C1433" t="n">
-        <v>1431.164403676238</v>
+        <v>1421.431682469465</v>
       </c>
       <c r="D1433" t="n">
-        <v>1390.087276344964</v>
+        <v>1378.75728624117</v>
       </c>
       <c r="E1433" t="n">
-        <v>1411.099975585938</v>
+        <v>1413.944946289062</v>
       </c>
       <c r="F1433" t="inlineStr"/>
       <c r="G1433" t="n">
-        <v>828289</v>
+        <v>541837</v>
       </c>
       <c r="H1433" t="n">
         <v>2025</v>
@@ -80612,7 +80612,7 @@
         <v>2</v>
       </c>
       <c r="J1433" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K1433" t="n">
         <v>0</v>
@@ -80624,7 +80624,7 @@
         <v>0</v>
       </c>
       <c r="N1433" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O1433" t="n">
         <v>0</v>
@@ -80635,29 +80635,27 @@
       <c r="Q1433" t="n">
         <v>0</v>
       </c>
-      <c r="R1433" t="n">
-        <v>0</v>
-      </c>
+      <c r="R1433" t="inlineStr"/>
     </row>
     <row r="1434">
       <c r="A1434" s="2" t="n">
-        <v>45692</v>
+        <v>45691</v>
       </c>
       <c r="B1434" t="n">
-        <v>1420</v>
+        <v>1417.488681337499</v>
       </c>
       <c r="C1434" t="n">
-        <v>1475</v>
+        <v>1431.164403676238</v>
       </c>
       <c r="D1434" t="n">
-        <v>1416.849975585938</v>
+        <v>1390.087276344964</v>
       </c>
       <c r="E1434" t="n">
-        <v>1419.800048828125</v>
+        <v>1411.099975585938</v>
       </c>
       <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="n">
-        <v>1523505</v>
+        <v>828289</v>
       </c>
       <c r="H1434" t="n">
         <v>2025</v>
@@ -80666,7 +80664,7 @@
         <v>2</v>
       </c>
       <c r="J1434" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1434" t="n">
         <v>0</v>
@@ -80695,23 +80693,23 @@
     </row>
     <row r="1435">
       <c r="A1435" s="2" t="n">
-        <v>45693</v>
+        <v>45692</v>
       </c>
       <c r="B1435" t="n">
-        <v>1426.400024414062</v>
+        <v>1420</v>
       </c>
       <c r="C1435" t="n">
-        <v>1441.300048828125</v>
+        <v>1475</v>
       </c>
       <c r="D1435" t="n">
-        <v>1409.599975585938</v>
+        <v>1416.849975585938</v>
       </c>
       <c r="E1435" t="n">
-        <v>1431.349975585938</v>
+        <v>1419.800048828125</v>
       </c>
       <c r="F1435" t="inlineStr"/>
       <c r="G1435" t="n">
-        <v>1390475</v>
+        <v>1523505</v>
       </c>
       <c r="H1435" t="n">
         <v>2025</v>
@@ -80720,7 +80718,7 @@
         <v>2</v>
       </c>
       <c r="J1435" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1435" t="n">
         <v>0</v>
@@ -80749,23 +80747,23 @@
     </row>
     <row r="1436">
       <c r="A1436" s="2" t="n">
-        <v>45694</v>
+        <v>45693</v>
       </c>
       <c r="B1436" t="n">
-        <v>1440</v>
+        <v>1426.400024414062</v>
       </c>
       <c r="C1436" t="n">
-        <v>1448.699951171875</v>
+        <v>1441.300048828125</v>
       </c>
       <c r="D1436" t="n">
-        <v>1422.449951171875</v>
+        <v>1409.599975585938</v>
       </c>
       <c r="E1436" t="n">
-        <v>1434.550048828125</v>
+        <v>1431.349975585938</v>
       </c>
       <c r="F1436" t="inlineStr"/>
       <c r="G1436" t="n">
-        <v>489797</v>
+        <v>1390475</v>
       </c>
       <c r="H1436" t="n">
         <v>2025</v>
@@ -80774,7 +80772,7 @@
         <v>2</v>
       </c>
       <c r="J1436" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K1436" t="n">
         <v>0</v>
@@ -80803,23 +80801,23 @@
     </row>
     <row r="1437">
       <c r="A1437" s="2" t="n">
-        <v>45695</v>
+        <v>45694</v>
       </c>
       <c r="B1437" t="n">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="C1437" t="n">
-        <v>1453.75</v>
+        <v>1448.699951171875</v>
       </c>
       <c r="D1437" t="n">
-        <v>1423.400024414062</v>
+        <v>1422.449951171875</v>
       </c>
       <c r="E1437" t="n">
-        <v>1447.800048828125</v>
+        <v>1434.550048828125</v>
       </c>
       <c r="F1437" t="inlineStr"/>
       <c r="G1437" t="n">
-        <v>540931</v>
+        <v>489797</v>
       </c>
       <c r="H1437" t="n">
         <v>2025</v>
@@ -80828,7 +80826,7 @@
         <v>2</v>
       </c>
       <c r="J1437" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K1437" t="n">
         <v>0</v>
@@ -80857,23 +80855,23 @@
     </row>
     <row r="1438">
       <c r="A1438" s="2" t="n">
-        <v>45698</v>
+        <v>45695</v>
       </c>
       <c r="B1438" t="n">
-        <v>1447.699951171875</v>
+        <v>1446</v>
       </c>
       <c r="C1438" t="n">
-        <v>1454.550048828125</v>
+        <v>1453.75</v>
       </c>
       <c r="D1438" t="n">
-        <v>1418</v>
+        <v>1423.400024414062</v>
       </c>
       <c r="E1438" t="n">
-        <v>1437.949951171875</v>
+        <v>1447.800048828125</v>
       </c>
       <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="n">
-        <v>467753</v>
+        <v>540931</v>
       </c>
       <c r="H1438" t="n">
         <v>2025</v>
@@ -80882,7 +80880,7 @@
         <v>2</v>
       </c>
       <c r="J1438" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K1438" t="n">
         <v>0</v>
@@ -80894,7 +80892,7 @@
         <v>0</v>
       </c>
       <c r="N1438" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O1438" t="n">
         <v>0</v>
@@ -80911,23 +80909,23 @@
     </row>
     <row r="1439">
       <c r="A1439" s="2" t="n">
-        <v>45699</v>
+        <v>45698</v>
       </c>
       <c r="B1439" t="n">
-        <v>1431.5</v>
+        <v>1447.699951171875</v>
       </c>
       <c r="C1439" t="n">
-        <v>1436.949951171875</v>
+        <v>1454.550048828125</v>
       </c>
       <c r="D1439" t="n">
-        <v>1362.5</v>
+        <v>1418</v>
       </c>
       <c r="E1439" t="n">
-        <v>1380.349975585938</v>
+        <v>1437.949951171875</v>
       </c>
       <c r="F1439" t="inlineStr"/>
       <c r="G1439" t="n">
-        <v>866310</v>
+        <v>467753</v>
       </c>
       <c r="H1439" t="n">
         <v>2025</v>
@@ -80936,7 +80934,7 @@
         <v>2</v>
       </c>
       <c r="J1439" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1439" t="n">
         <v>0</v>
@@ -80965,23 +80963,23 @@
     </row>
     <row r="1440">
       <c r="A1440" s="2" t="n">
-        <v>45700</v>
+        <v>45699</v>
       </c>
       <c r="B1440" t="n">
+        <v>1431.5</v>
+      </c>
+      <c r="C1440" t="n">
+        <v>1436.949951171875</v>
+      </c>
+      <c r="D1440" t="n">
+        <v>1362.5</v>
+      </c>
+      <c r="E1440" t="n">
         <v>1380.349975585938</v>
-      </c>
-      <c r="C1440" t="n">
-        <v>1387.949951171875</v>
-      </c>
-      <c r="D1440" t="n">
-        <v>1322.349975585938</v>
-      </c>
-      <c r="E1440" t="n">
-        <v>1353.150024414062</v>
       </c>
       <c r="F1440" t="inlineStr"/>
       <c r="G1440" t="n">
-        <v>962838</v>
+        <v>866310</v>
       </c>
       <c r="H1440" t="n">
         <v>2025</v>
@@ -80990,7 +80988,7 @@
         <v>2</v>
       </c>
       <c r="J1440" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1440" t="n">
         <v>0</v>
@@ -81013,27 +81011,29 @@
       <c r="Q1440" t="n">
         <v>0</v>
       </c>
-      <c r="R1440" t="inlineStr"/>
+      <c r="R1440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1441">
       <c r="A1441" s="2" t="n">
-        <v>45701</v>
+        <v>45700</v>
       </c>
       <c r="B1441" t="n">
-        <v>1360</v>
+        <v>1380.349975585938</v>
       </c>
       <c r="C1441" t="n">
-        <v>1364.550048828125</v>
+        <v>1387.949951171875</v>
       </c>
       <c r="D1441" t="n">
-        <v>1332</v>
+        <v>1322.349975585938</v>
       </c>
       <c r="E1441" t="n">
-        <v>1340.349975585938</v>
+        <v>1353.150024414062</v>
       </c>
       <c r="F1441" t="inlineStr"/>
       <c r="G1441" t="n">
-        <v>637262</v>
+        <v>962838</v>
       </c>
       <c r="H1441" t="n">
         <v>2025</v>
@@ -81042,7 +81042,7 @@
         <v>2</v>
       </c>
       <c r="J1441" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1441" t="n">
         <v>0</v>
@@ -81065,27 +81065,29 @@
       <c r="Q1441" t="n">
         <v>0</v>
       </c>
-      <c r="R1441" t="inlineStr"/>
+      <c r="R1441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1442">
       <c r="A1442" s="2" t="n">
-        <v>45702</v>
+        <v>45701</v>
       </c>
       <c r="B1442" t="n">
-        <v>1341.900024414062</v>
+        <v>1360</v>
       </c>
       <c r="C1442" t="n">
-        <v>1353.25</v>
+        <v>1364.550048828125</v>
       </c>
       <c r="D1442" t="n">
-        <v>1308.5</v>
+        <v>1332</v>
       </c>
       <c r="E1442" t="n">
-        <v>1342.650024414062</v>
+        <v>1340.349975585938</v>
       </c>
       <c r="F1442" t="inlineStr"/>
       <c r="G1442" t="n">
-        <v>595239</v>
+        <v>637262</v>
       </c>
       <c r="H1442" t="n">
         <v>2025</v>
@@ -81094,7 +81096,7 @@
         <v>2</v>
       </c>
       <c r="J1442" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1442" t="n">
         <v>0</v>
@@ -81117,27 +81119,29 @@
       <c r="Q1442" t="n">
         <v>0</v>
       </c>
-      <c r="R1442" t="inlineStr"/>
+      <c r="R1442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1443">
       <c r="A1443" s="2" t="n">
-        <v>45705</v>
+        <v>45702</v>
       </c>
       <c r="B1443" t="n">
-        <v>1341.050048828125</v>
+        <v>1341.900024414062</v>
       </c>
       <c r="C1443" t="n">
-        <v>1350.599975585938</v>
+        <v>1353.25</v>
       </c>
       <c r="D1443" t="n">
-        <v>1304</v>
+        <v>1308.5</v>
       </c>
       <c r="E1443" t="n">
-        <v>1310.400024414062</v>
+        <v>1342.650024414062</v>
       </c>
       <c r="F1443" t="inlineStr"/>
       <c r="G1443" t="n">
-        <v>794453</v>
+        <v>595239</v>
       </c>
       <c r="H1443" t="n">
         <v>2025</v>
@@ -81146,7 +81150,7 @@
         <v>2</v>
       </c>
       <c r="J1443" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K1443" t="n">
         <v>0</v>
@@ -81158,7 +81162,7 @@
         <v>0</v>
       </c>
       <c r="N1443" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O1443" t="n">
         <v>0</v>
@@ -81169,27 +81173,29 @@
       <c r="Q1443" t="n">
         <v>0</v>
       </c>
-      <c r="R1443" t="inlineStr"/>
+      <c r="R1443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1444">
       <c r="A1444" s="2" t="n">
-        <v>45706</v>
+        <v>45705</v>
       </c>
       <c r="B1444" t="n">
-        <v>1305</v>
+        <v>1341.050048828125</v>
       </c>
       <c r="C1444" t="n">
-        <v>1333.300048828125</v>
+        <v>1350.599975585938</v>
       </c>
       <c r="D1444" t="n">
-        <v>1294</v>
+        <v>1304</v>
       </c>
       <c r="E1444" t="n">
-        <v>1329.449951171875</v>
+        <v>1310.400024414062</v>
       </c>
       <c r="F1444" t="inlineStr"/>
       <c r="G1444" t="n">
-        <v>537675</v>
+        <v>794453</v>
       </c>
       <c r="H1444" t="n">
         <v>2025</v>
@@ -81198,7 +81204,7 @@
         <v>2</v>
       </c>
       <c r="J1444" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K1444" t="n">
         <v>0</v>
@@ -81221,27 +81227,29 @@
       <c r="Q1444" t="n">
         <v>0</v>
       </c>
-      <c r="R1444" t="inlineStr"/>
+      <c r="R1444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1445">
       <c r="A1445" s="2" t="n">
-        <v>45707</v>
+        <v>45706</v>
       </c>
       <c r="B1445" t="n">
-        <v>1328.75</v>
+        <v>1305</v>
       </c>
       <c r="C1445" t="n">
-        <v>1354.349975585938</v>
+        <v>1333.300048828125</v>
       </c>
       <c r="D1445" t="n">
-        <v>1316</v>
+        <v>1294</v>
       </c>
       <c r="E1445" t="n">
-        <v>1336.25</v>
+        <v>1329.449951171875</v>
       </c>
       <c r="F1445" t="inlineStr"/>
       <c r="G1445" t="n">
-        <v>497257</v>
+        <v>537675</v>
       </c>
       <c r="H1445" t="n">
         <v>2025</v>
@@ -81250,7 +81258,7 @@
         <v>2</v>
       </c>
       <c r="J1445" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1445" t="n">
         <v>0</v>
@@ -81273,27 +81281,29 @@
       <c r="Q1445" t="n">
         <v>0</v>
       </c>
-      <c r="R1445" t="inlineStr"/>
+      <c r="R1445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1446">
       <c r="A1446" s="2" t="n">
-        <v>45708</v>
+        <v>45707</v>
       </c>
       <c r="B1446" t="n">
-        <v>1335.5</v>
+        <v>1328.75</v>
       </c>
       <c r="C1446" t="n">
-        <v>1348.5</v>
+        <v>1354.349975585938</v>
       </c>
       <c r="D1446" t="n">
-        <v>1328.050048828125</v>
+        <v>1316</v>
       </c>
       <c r="E1446" t="n">
-        <v>1342.050048828125</v>
+        <v>1336.25</v>
       </c>
       <c r="F1446" t="inlineStr"/>
       <c r="G1446" t="n">
-        <v>385983</v>
+        <v>497257</v>
       </c>
       <c r="H1446" t="n">
         <v>2025</v>
@@ -81302,7 +81312,7 @@
         <v>2</v>
       </c>
       <c r="J1446" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1446" t="n">
         <v>0</v>
@@ -81325,27 +81335,29 @@
       <c r="Q1446" t="n">
         <v>0</v>
       </c>
-      <c r="R1446" t="inlineStr"/>
+      <c r="R1446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1447">
       <c r="A1447" s="2" t="n">
-        <v>45709</v>
+        <v>45708</v>
       </c>
       <c r="B1447" t="n">
-        <v>1342</v>
+        <v>1335.5</v>
       </c>
       <c r="C1447" t="n">
-        <v>1345</v>
+        <v>1348.5</v>
       </c>
       <c r="D1447" t="n">
-        <v>1294</v>
+        <v>1328.050048828125</v>
       </c>
       <c r="E1447" t="n">
-        <v>1310.099975585938</v>
+        <v>1342.050048828125</v>
       </c>
       <c r="F1447" t="inlineStr"/>
       <c r="G1447" t="n">
-        <v>1595171</v>
+        <v>385983</v>
       </c>
       <c r="H1447" t="n">
         <v>2025</v>
@@ -81354,7 +81366,7 @@
         <v>2</v>
       </c>
       <c r="J1447" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1447" t="n">
         <v>0</v>
@@ -81377,27 +81389,29 @@
       <c r="Q1447" t="n">
         <v>0</v>
       </c>
-      <c r="R1447" t="inlineStr"/>
+      <c r="R1447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1448">
       <c r="A1448" s="2" t="n">
-        <v>45712</v>
+        <v>45709</v>
       </c>
       <c r="B1448" t="n">
-        <v>1303.050048828125</v>
+        <v>1342</v>
       </c>
       <c r="C1448" t="n">
-        <v>1303.550048828125</v>
+        <v>1345</v>
       </c>
       <c r="D1448" t="n">
-        <v>1253.199951171875</v>
+        <v>1294</v>
       </c>
       <c r="E1448" t="n">
-        <v>1281.699951171875</v>
+        <v>1310.099975585938</v>
       </c>
       <c r="F1448" t="inlineStr"/>
       <c r="G1448" t="n">
-        <v>1341968</v>
+        <v>1595171</v>
       </c>
       <c r="H1448" t="n">
         <v>2025</v>
@@ -81406,7 +81420,7 @@
         <v>2</v>
       </c>
       <c r="J1448" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K1448" t="n">
         <v>0</v>
@@ -81418,7 +81432,7 @@
         <v>0</v>
       </c>
       <c r="N1448" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O1448" t="n">
         <v>0</v>
@@ -81429,27 +81443,29 @@
       <c r="Q1448" t="n">
         <v>0</v>
       </c>
-      <c r="R1448" t="inlineStr"/>
+      <c r="R1448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1449">
       <c r="A1449" s="2" t="n">
-        <v>45713</v>
+        <v>45712</v>
       </c>
       <c r="B1449" t="n">
-        <v>1270.099975585938</v>
+        <v>1303.050048828125</v>
       </c>
       <c r="C1449" t="n">
-        <v>1295</v>
+        <v>1303.550048828125</v>
       </c>
       <c r="D1449" t="n">
-        <v>1265.050048828125</v>
+        <v>1253.199951171875</v>
       </c>
       <c r="E1449" t="n">
-        <v>1285.5</v>
+        <v>1281.699951171875</v>
       </c>
       <c r="F1449" t="inlineStr"/>
       <c r="G1449" t="n">
-        <v>534756</v>
+        <v>1341968</v>
       </c>
       <c r="H1449" t="n">
         <v>2025</v>
@@ -81458,7 +81474,7 @@
         <v>2</v>
       </c>
       <c r="J1449" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K1449" t="n">
         <v>0</v>
@@ -81481,27 +81497,29 @@
       <c r="Q1449" t="n">
         <v>0</v>
       </c>
-      <c r="R1449" t="inlineStr"/>
+      <c r="R1449" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1450">
       <c r="A1450" s="2" t="n">
-        <v>45715</v>
+        <v>45713</v>
       </c>
       <c r="B1450" t="n">
-        <v>1292.900024414062</v>
+        <v>1270.099975585938</v>
       </c>
       <c r="C1450" t="n">
-        <v>1295.449951171875</v>
+        <v>1295</v>
       </c>
       <c r="D1450" t="n">
-        <v>1240.550048828125</v>
+        <v>1265.050048828125</v>
       </c>
       <c r="E1450" t="n">
-        <v>1251.949951171875</v>
+        <v>1285.5</v>
       </c>
       <c r="F1450" t="inlineStr"/>
       <c r="G1450" t="n">
-        <v>530052</v>
+        <v>534756</v>
       </c>
       <c r="H1450" t="n">
         <v>2025</v>
@@ -81510,7 +81528,7 @@
         <v>2</v>
       </c>
       <c r="J1450" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K1450" t="n">
         <v>0</v>
@@ -81533,27 +81551,29 @@
       <c r="Q1450" t="n">
         <v>0</v>
       </c>
-      <c r="R1450" t="inlineStr"/>
+      <c r="R1450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1451">
       <c r="A1451" s="2" t="n">
-        <v>45716</v>
+        <v>45715</v>
       </c>
       <c r="B1451" t="n">
-        <v>1234</v>
+        <v>1292.900024414062</v>
       </c>
       <c r="C1451" t="n">
-        <v>1240.5</v>
+        <v>1295.449951171875</v>
       </c>
       <c r="D1451" t="n">
-        <v>1192</v>
+        <v>1240.550048828125</v>
       </c>
       <c r="E1451" t="n">
-        <v>1197.400024414062</v>
+        <v>1251.949951171875</v>
       </c>
       <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="n">
-        <v>979095</v>
+        <v>530052</v>
       </c>
       <c r="H1451" t="n">
         <v>2025</v>
@@ -81562,7 +81582,7 @@
         <v>2</v>
       </c>
       <c r="J1451" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K1451" t="n">
         <v>0</v>
@@ -81585,7 +81605,531 @@
       <c r="Q1451" t="n">
         <v>0</v>
       </c>
-      <c r="R1451" t="inlineStr"/>
+      <c r="R1451" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B1452" t="n">
+        <v>1234</v>
+      </c>
+      <c r="C1452" t="n">
+        <v>1240.5</v>
+      </c>
+      <c r="D1452" t="n">
+        <v>1192</v>
+      </c>
+      <c r="E1452" t="n">
+        <v>1197.400024414062</v>
+      </c>
+      <c r="F1452" t="inlineStr"/>
+      <c r="G1452" t="n">
+        <v>979095</v>
+      </c>
+      <c r="H1452" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1452" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1452" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1452" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1453" t="n">
+        <v>1194.949951171875</v>
+      </c>
+      <c r="C1453" t="n">
+        <v>1213</v>
+      </c>
+      <c r="D1453" t="n">
+        <v>1142.300048828125</v>
+      </c>
+      <c r="E1453" t="n">
+        <v>1205.050048828125</v>
+      </c>
+      <c r="F1453" t="inlineStr"/>
+      <c r="G1453" t="n">
+        <v>1100500</v>
+      </c>
+      <c r="H1453" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1453" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1453" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1453" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1453" t="inlineStr"/>
+    </row>
+    <row r="1454">
+      <c r="A1454" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B1454" t="n">
+        <v>1161.25</v>
+      </c>
+      <c r="C1454" t="n">
+        <v>1222.25</v>
+      </c>
+      <c r="D1454" t="n">
+        <v>1161.25</v>
+      </c>
+      <c r="E1454" t="n">
+        <v>1214.650024414062</v>
+      </c>
+      <c r="F1454" t="inlineStr"/>
+      <c r="G1454" t="n">
+        <v>902775</v>
+      </c>
+      <c r="H1454" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1454" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1454" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1454" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1454" t="inlineStr"/>
+    </row>
+    <row r="1455">
+      <c r="A1455" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B1455" t="n">
+        <v>1219</v>
+      </c>
+      <c r="C1455" t="n">
+        <v>1298</v>
+      </c>
+      <c r="D1455" t="n">
+        <v>1214.699951171875</v>
+      </c>
+      <c r="E1455" t="n">
+        <v>1281.75</v>
+      </c>
+      <c r="F1455" t="inlineStr"/>
+      <c r="G1455" t="n">
+        <v>1466330</v>
+      </c>
+      <c r="H1455" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1455" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1455" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1455" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1455" t="inlineStr"/>
+    </row>
+    <row r="1456">
+      <c r="A1456" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B1456" t="n">
+        <v>1300</v>
+      </c>
+      <c r="C1456" t="n">
+        <v>1331.449951171875</v>
+      </c>
+      <c r="D1456" t="n">
+        <v>1290.050048828125</v>
+      </c>
+      <c r="E1456" t="n">
+        <v>1326.800048828125</v>
+      </c>
+      <c r="F1456" t="inlineStr"/>
+      <c r="G1456" t="n">
+        <v>1600892</v>
+      </c>
+      <c r="H1456" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1456" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1456" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1456" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1456" t="inlineStr"/>
+    </row>
+    <row r="1457">
+      <c r="A1457" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B1457" t="n">
+        <v>1326.800048828125</v>
+      </c>
+      <c r="C1457" t="n">
+        <v>1330.25</v>
+      </c>
+      <c r="D1457" t="n">
+        <v>1296.25</v>
+      </c>
+      <c r="E1457" t="n">
+        <v>1305.400024414062</v>
+      </c>
+      <c r="F1457" t="inlineStr"/>
+      <c r="G1457" t="n">
+        <v>708924</v>
+      </c>
+      <c r="H1457" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1457" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1457" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1457" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1457" t="inlineStr"/>
+    </row>
+    <row r="1458">
+      <c r="A1458" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1458" t="n">
+        <v>1305.949951171875</v>
+      </c>
+      <c r="C1458" t="n">
+        <v>1314.349975585938</v>
+      </c>
+      <c r="D1458" t="n">
+        <v>1250</v>
+      </c>
+      <c r="E1458" t="n">
+        <v>1254</v>
+      </c>
+      <c r="F1458" t="inlineStr"/>
+      <c r="G1458" t="n">
+        <v>621553</v>
+      </c>
+      <c r="H1458" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1458" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1458" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1458" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1458" t="inlineStr"/>
+    </row>
+    <row r="1459">
+      <c r="A1459" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B1459" t="n">
+        <v>1241</v>
+      </c>
+      <c r="C1459" t="n">
+        <v>1278</v>
+      </c>
+      <c r="D1459" t="n">
+        <v>1225.050048828125</v>
+      </c>
+      <c r="E1459" t="n">
+        <v>1268.900024414062</v>
+      </c>
+      <c r="F1459" t="inlineStr"/>
+      <c r="G1459" t="n">
+        <v>673514</v>
+      </c>
+      <c r="H1459" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1459" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1459" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1459" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1459" t="inlineStr"/>
+    </row>
+    <row r="1460">
+      <c r="A1460" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B1460" t="n">
+        <v>1275</v>
+      </c>
+      <c r="C1460" t="n">
+        <v>1283.900024414062</v>
+      </c>
+      <c r="D1460" t="n">
+        <v>1229.550048828125</v>
+      </c>
+      <c r="E1460" t="n">
+        <v>1233.900024414062</v>
+      </c>
+      <c r="F1460" t="inlineStr"/>
+      <c r="G1460" t="n">
+        <v>536599</v>
+      </c>
+      <c r="H1460" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1460" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1460" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1460" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1460" t="inlineStr"/>
+    </row>
+    <row r="1461">
+      <c r="A1461" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B1461" t="n">
+        <v>1242</v>
+      </c>
+      <c r="C1461" t="n">
+        <v>1246.5</v>
+      </c>
+      <c r="D1461" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E1461" t="n">
+        <v>1206.449951171875</v>
+      </c>
+      <c r="F1461" t="inlineStr"/>
+      <c r="G1461" t="n">
+        <v>483157</v>
+      </c>
+      <c r="H1461" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1461" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1461" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1461" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1461" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1461"/>
+  <dimension ref="A1:R1471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80635,7 +80635,9 @@
       <c r="Q1433" t="n">
         <v>0</v>
       </c>
-      <c r="R1433" t="inlineStr"/>
+      <c r="R1433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1434">
       <c r="A1434" s="2" t="n">
@@ -81705,7 +81707,7 @@
         <v>10</v>
       </c>
       <c r="O1453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1453" t="n">
         <v>0</v>
@@ -81713,7 +81715,9 @@
       <c r="Q1453" t="n">
         <v>0</v>
       </c>
-      <c r="R1453" t="inlineStr"/>
+      <c r="R1453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1454">
       <c r="A1454" s="2" t="n">
@@ -81765,7 +81769,9 @@
       <c r="Q1454" t="n">
         <v>0</v>
       </c>
-      <c r="R1454" t="inlineStr"/>
+      <c r="R1454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1455">
       <c r="A1455" s="2" t="n">
@@ -81817,7 +81823,9 @@
       <c r="Q1455" t="n">
         <v>0</v>
       </c>
-      <c r="R1455" t="inlineStr"/>
+      <c r="R1455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1456">
       <c r="A1456" s="2" t="n">
@@ -81869,7 +81877,9 @@
       <c r="Q1456" t="n">
         <v>0</v>
       </c>
-      <c r="R1456" t="inlineStr"/>
+      <c r="R1456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1457">
       <c r="A1457" s="2" t="n">
@@ -81921,7 +81931,9 @@
       <c r="Q1457" t="n">
         <v>0</v>
       </c>
-      <c r="R1457" t="inlineStr"/>
+      <c r="R1457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1458">
       <c r="A1458" s="2" t="n">
@@ -81973,7 +81985,9 @@
       <c r="Q1458" t="n">
         <v>0</v>
       </c>
-      <c r="R1458" t="inlineStr"/>
+      <c r="R1458" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1459">
       <c r="A1459" s="2" t="n">
@@ -82025,7 +82039,9 @@
       <c r="Q1459" t="n">
         <v>0</v>
       </c>
-      <c r="R1459" t="inlineStr"/>
+      <c r="R1459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1460">
       <c r="A1460" s="2" t="n">
@@ -82077,7 +82093,9 @@
       <c r="Q1460" t="n">
         <v>0</v>
       </c>
-      <c r="R1460" t="inlineStr"/>
+      <c r="R1460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1461">
       <c r="A1461" s="2" t="n">
@@ -82129,7 +82147,529 @@
       <c r="Q1461" t="n">
         <v>0</v>
       </c>
-      <c r="R1461" t="inlineStr"/>
+      <c r="R1461" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1462" t="n">
+        <v>1215.050048828125</v>
+      </c>
+      <c r="C1462" t="n">
+        <v>1258.599975585938</v>
+      </c>
+      <c r="D1462" t="n">
+        <v>1215.050048828125</v>
+      </c>
+      <c r="E1462" t="n">
+        <v>1250.25</v>
+      </c>
+      <c r="F1462" t="inlineStr"/>
+      <c r="G1462" t="n">
+        <v>1351602</v>
+      </c>
+      <c r="H1462" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1462" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1462" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1462" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1462" t="inlineStr"/>
+    </row>
+    <row r="1463">
+      <c r="A1463" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B1463" t="n">
+        <v>1250.25</v>
+      </c>
+      <c r="C1463" t="n">
+        <v>1250.25</v>
+      </c>
+      <c r="D1463" t="n">
+        <v>1250.25</v>
+      </c>
+      <c r="E1463" t="n">
+        <v>1250.25</v>
+      </c>
+      <c r="F1463" t="inlineStr"/>
+      <c r="G1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1463" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1463" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1463" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1463" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1463" t="inlineStr"/>
+    </row>
+    <row r="1464">
+      <c r="A1464" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B1464" t="n">
+        <v>1256.949951171875</v>
+      </c>
+      <c r="C1464" t="n">
+        <v>1277.400024414062</v>
+      </c>
+      <c r="D1464" t="n">
+        <v>1240.050048828125</v>
+      </c>
+      <c r="E1464" t="n">
+        <v>1263.099975585938</v>
+      </c>
+      <c r="F1464" t="inlineStr"/>
+      <c r="G1464" t="n">
+        <v>1069437</v>
+      </c>
+      <c r="H1464" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1464" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1464" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1464" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1464" t="inlineStr"/>
+    </row>
+    <row r="1465">
+      <c r="A1465" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B1465" t="n">
+        <v>1273</v>
+      </c>
+      <c r="C1465" t="n">
+        <v>1309</v>
+      </c>
+      <c r="D1465" t="n">
+        <v>1265.050048828125</v>
+      </c>
+      <c r="E1465" t="n">
+        <v>1281.599975585938</v>
+      </c>
+      <c r="F1465" t="inlineStr"/>
+      <c r="G1465" t="n">
+        <v>937523</v>
+      </c>
+      <c r="H1465" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1465" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1465" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1465" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1465" t="inlineStr"/>
+    </row>
+    <row r="1466">
+      <c r="A1466" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B1466" t="n">
+        <v>1280</v>
+      </c>
+      <c r="C1466" t="n">
+        <v>1328</v>
+      </c>
+      <c r="D1466" t="n">
+        <v>1263.25</v>
+      </c>
+      <c r="E1466" t="n">
+        <v>1323.400024414062</v>
+      </c>
+      <c r="F1466" t="inlineStr"/>
+      <c r="G1466" t="n">
+        <v>1028101</v>
+      </c>
+      <c r="H1466" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1466" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1466" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1466" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1466" t="inlineStr"/>
+    </row>
+    <row r="1467">
+      <c r="A1467" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1467" t="n">
+        <v>1331.800048828125</v>
+      </c>
+      <c r="C1467" t="n">
+        <v>1399.5</v>
+      </c>
+      <c r="D1467" t="n">
+        <v>1331</v>
+      </c>
+      <c r="E1467" t="n">
+        <v>1384.550048828125</v>
+      </c>
+      <c r="F1467" t="inlineStr"/>
+      <c r="G1467" t="n">
+        <v>1342704</v>
+      </c>
+      <c r="H1467" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1467" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1467" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1467" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1467" t="inlineStr"/>
+    </row>
+    <row r="1468">
+      <c r="A1468" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B1468" t="n">
+        <v>1400</v>
+      </c>
+      <c r="C1468" t="n">
+        <v>1414</v>
+      </c>
+      <c r="D1468" t="n">
+        <v>1337.949951171875</v>
+      </c>
+      <c r="E1468" t="n">
+        <v>1342.849975585938</v>
+      </c>
+      <c r="F1468" t="inlineStr"/>
+      <c r="G1468" t="n">
+        <v>1115012</v>
+      </c>
+      <c r="H1468" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1468" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1468" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1468" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1468" t="inlineStr"/>
+    </row>
+    <row r="1469">
+      <c r="A1469" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B1469" t="n">
+        <v>1343.900024414062</v>
+      </c>
+      <c r="C1469" t="n">
+        <v>1375</v>
+      </c>
+      <c r="D1469" t="n">
+        <v>1338.849975585938</v>
+      </c>
+      <c r="E1469" t="n">
+        <v>1366.650024414062</v>
+      </c>
+      <c r="F1469" t="inlineStr"/>
+      <c r="G1469" t="n">
+        <v>946785</v>
+      </c>
+      <c r="H1469" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1469" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1469" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1469" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1469" t="inlineStr"/>
+    </row>
+    <row r="1470">
+      <c r="A1470" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B1470" t="n">
+        <v>1335</v>
+      </c>
+      <c r="C1470" t="n">
+        <v>1349.050048828125</v>
+      </c>
+      <c r="D1470" t="n">
+        <v>1312</v>
+      </c>
+      <c r="E1470" t="n">
+        <v>1334.150024414062</v>
+      </c>
+      <c r="F1470" t="inlineStr"/>
+      <c r="G1470" t="n">
+        <v>980944</v>
+      </c>
+      <c r="H1470" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1470" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1470" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1470" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1470" t="inlineStr"/>
+    </row>
+    <row r="1471">
+      <c r="A1471" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B1471" t="n">
+        <v>1335</v>
+      </c>
+      <c r="C1471" t="n">
+        <v>1349</v>
+      </c>
+      <c r="D1471" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E1471" t="n">
+        <v>1307.449951171875</v>
+      </c>
+      <c r="F1471" t="inlineStr"/>
+      <c r="G1471" t="n">
+        <v>673433</v>
+      </c>
+      <c r="H1471" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1471" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1471" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1471" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1471" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1471"/>
+  <dimension ref="A1:R1475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82201,7 +82201,9 @@
       <c r="Q1462" t="n">
         <v>0</v>
       </c>
-      <c r="R1462" t="inlineStr"/>
+      <c r="R1462" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1463">
       <c r="A1463" s="2" t="n">
@@ -82253,7 +82255,9 @@
       <c r="Q1463" t="n">
         <v>0</v>
       </c>
-      <c r="R1463" t="inlineStr"/>
+      <c r="R1463" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1464">
       <c r="A1464" s="2" t="n">
@@ -82305,7 +82309,9 @@
       <c r="Q1464" t="n">
         <v>0</v>
       </c>
-      <c r="R1464" t="inlineStr"/>
+      <c r="R1464" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1465">
       <c r="A1465" s="2" t="n">
@@ -82357,7 +82363,9 @@
       <c r="Q1465" t="n">
         <v>0</v>
       </c>
-      <c r="R1465" t="inlineStr"/>
+      <c r="R1465" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1466">
       <c r="A1466" s="2" t="n">
@@ -82409,7 +82417,9 @@
       <c r="Q1466" t="n">
         <v>0</v>
       </c>
-      <c r="R1466" t="inlineStr"/>
+      <c r="R1466" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1467">
       <c r="A1467" s="2" t="n">
@@ -82461,7 +82471,9 @@
       <c r="Q1467" t="n">
         <v>0</v>
       </c>
-      <c r="R1467" t="inlineStr"/>
+      <c r="R1467" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1468">
       <c r="A1468" s="2" t="n">
@@ -82513,7 +82525,9 @@
       <c r="Q1468" t="n">
         <v>0</v>
       </c>
-      <c r="R1468" t="inlineStr"/>
+      <c r="R1468" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1469">
       <c r="A1469" s="2" t="n">
@@ -82565,7 +82579,9 @@
       <c r="Q1469" t="n">
         <v>0</v>
       </c>
-      <c r="R1469" t="inlineStr"/>
+      <c r="R1469" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1470">
       <c r="A1470" s="2" t="n">
@@ -82617,7 +82633,9 @@
       <c r="Q1470" t="n">
         <v>0</v>
       </c>
-      <c r="R1470" t="inlineStr"/>
+      <c r="R1470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1471">
       <c r="A1471" s="2" t="n">
@@ -82669,7 +82687,217 @@
       <c r="Q1471" t="n">
         <v>0</v>
       </c>
-      <c r="R1471" t="inlineStr"/>
+      <c r="R1471" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B1472" t="n">
+        <v>1306.599975585938</v>
+      </c>
+      <c r="C1472" t="n">
+        <v>1312.949951171875</v>
+      </c>
+      <c r="D1472" t="n">
+        <v>1259.75</v>
+      </c>
+      <c r="E1472" t="n">
+        <v>1270.599975585938</v>
+      </c>
+      <c r="F1472" t="inlineStr"/>
+      <c r="G1472" t="n">
+        <v>745532</v>
+      </c>
+      <c r="H1472" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1472" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1472" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1472" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1472" t="inlineStr"/>
+    </row>
+    <row r="1473">
+      <c r="A1473" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B1473" t="n">
+        <v>1279.099975585938</v>
+      </c>
+      <c r="C1473" t="n">
+        <v>1328.800048828125</v>
+      </c>
+      <c r="D1473" t="n">
+        <v>1266.449951171875</v>
+      </c>
+      <c r="E1473" t="n">
+        <v>1311.949951171875</v>
+      </c>
+      <c r="F1473" t="inlineStr"/>
+      <c r="G1473" t="n">
+        <v>745673</v>
+      </c>
+      <c r="H1473" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1473" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1473" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1473" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1473" t="inlineStr"/>
+    </row>
+    <row r="1474">
+      <c r="A1474" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B1474" t="n">
+        <v>1281.800048828125</v>
+      </c>
+      <c r="C1474" t="n">
+        <v>1284.949951171875</v>
+      </c>
+      <c r="D1474" t="n">
+        <v>1200.349975585938</v>
+      </c>
+      <c r="E1474" t="n">
+        <v>1211.099975585938</v>
+      </c>
+      <c r="F1474" t="inlineStr"/>
+      <c r="G1474" t="n">
+        <v>4334432</v>
+      </c>
+      <c r="H1474" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1474" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1474" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1474" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1474" t="inlineStr"/>
+    </row>
+    <row r="1475">
+      <c r="A1475" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B1475" t="n">
+        <v>1200.949951171875</v>
+      </c>
+      <c r="C1475" t="n">
+        <v>1204.949951171875</v>
+      </c>
+      <c r="D1475" t="n">
+        <v>1115.5</v>
+      </c>
+      <c r="E1475" t="n">
+        <v>1134</v>
+      </c>
+      <c r="F1475" t="inlineStr"/>
+      <c r="G1475" t="n">
+        <v>2596282</v>
+      </c>
+      <c r="H1475" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1475" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1475" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1475" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1475" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1475"/>
+  <dimension ref="A1:R1479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82517,7 +82517,7 @@
         <v>13</v>
       </c>
       <c r="O1468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1468" t="n">
         <v>0</v>
@@ -82741,7 +82741,9 @@
       <c r="Q1472" t="n">
         <v>0</v>
       </c>
-      <c r="R1472" t="inlineStr"/>
+      <c r="R1472" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1473">
       <c r="A1473" s="2" t="n">
@@ -82793,7 +82795,9 @@
       <c r="Q1473" t="n">
         <v>0</v>
       </c>
-      <c r="R1473" t="inlineStr"/>
+      <c r="R1473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1474">
       <c r="A1474" s="2" t="n">
@@ -82845,7 +82849,9 @@
       <c r="Q1474" t="n">
         <v>0</v>
       </c>
-      <c r="R1474" t="inlineStr"/>
+      <c r="R1474" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1475">
       <c r="A1475" s="2" t="n">
@@ -82897,7 +82903,217 @@
       <c r="Q1475" t="n">
         <v>0</v>
       </c>
-      <c r="R1475" t="inlineStr"/>
+      <c r="R1475" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1476" t="n">
+        <v>1020.599975585938</v>
+      </c>
+      <c r="C1476" t="n">
+        <v>1084.900024414062</v>
+      </c>
+      <c r="D1476" t="n">
+        <v>1020.599975585938</v>
+      </c>
+      <c r="E1476" t="n">
+        <v>1065.300048828125</v>
+      </c>
+      <c r="F1476" t="inlineStr"/>
+      <c r="G1476" t="n">
+        <v>2787712</v>
+      </c>
+      <c r="H1476" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1476" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1476" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1476" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1476" t="inlineStr"/>
+    </row>
+    <row r="1477">
+      <c r="A1477" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B1477" t="n">
+        <v>1090</v>
+      </c>
+      <c r="C1477" t="n">
+        <v>1126.599975585938</v>
+      </c>
+      <c r="D1477" t="n">
+        <v>1061.099975585938</v>
+      </c>
+      <c r="E1477" t="n">
+        <v>1113.199951171875</v>
+      </c>
+      <c r="F1477" t="inlineStr"/>
+      <c r="G1477" t="n">
+        <v>2319254</v>
+      </c>
+      <c r="H1477" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1477" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1477" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1477" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1477" t="inlineStr"/>
+    </row>
+    <row r="1478">
+      <c r="A1478" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B1478" t="n">
+        <v>1110</v>
+      </c>
+      <c r="C1478" t="n">
+        <v>1110</v>
+      </c>
+      <c r="D1478" t="n">
+        <v>1063.099975585938</v>
+      </c>
+      <c r="E1478" t="n">
+        <v>1078.349975585938</v>
+      </c>
+      <c r="F1478" t="inlineStr"/>
+      <c r="G1478" t="n">
+        <v>1492684</v>
+      </c>
+      <c r="H1478" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1478" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1478" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1478" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1478" t="inlineStr"/>
+    </row>
+    <row r="1479">
+      <c r="A1479" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B1479" t="n">
+        <v>1130</v>
+      </c>
+      <c r="C1479" t="n">
+        <v>1138.550048828125</v>
+      </c>
+      <c r="D1479" t="n">
+        <v>1100.050048828125</v>
+      </c>
+      <c r="E1479" t="n">
+        <v>1118.949951171875</v>
+      </c>
+      <c r="F1479" t="inlineStr"/>
+      <c r="G1479" t="n">
+        <v>1271020</v>
+      </c>
+      <c r="H1479" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1479" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1479" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1479" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1479" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1479"/>
+  <dimension ref="A1:R1487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82949,7 +82949,7 @@
         <v>15</v>
       </c>
       <c r="O1476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1476" t="n">
         <v>0</v>
@@ -82957,7 +82957,9 @@
       <c r="Q1476" t="n">
         <v>0</v>
       </c>
-      <c r="R1476" t="inlineStr"/>
+      <c r="R1476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1477">
       <c r="A1477" s="2" t="n">
@@ -83009,7 +83011,9 @@
       <c r="Q1477" t="n">
         <v>0</v>
       </c>
-      <c r="R1477" t="inlineStr"/>
+      <c r="R1477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1478">
       <c r="A1478" s="2" t="n">
@@ -83061,7 +83065,9 @@
       <c r="Q1478" t="n">
         <v>0</v>
       </c>
-      <c r="R1478" t="inlineStr"/>
+      <c r="R1478" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1479">
       <c r="A1479" s="2" t="n">
@@ -83113,7 +83119,425 @@
       <c r="Q1479" t="n">
         <v>0</v>
       </c>
-      <c r="R1479" t="inlineStr"/>
+      <c r="R1479" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B1480" t="n">
+        <v>1130</v>
+      </c>
+      <c r="C1480" t="n">
+        <v>1165.900024414062</v>
+      </c>
+      <c r="D1480" t="n">
+        <v>1130</v>
+      </c>
+      <c r="E1480" t="n">
+        <v>1151.800048828125</v>
+      </c>
+      <c r="F1480" t="inlineStr"/>
+      <c r="G1480" t="n">
+        <v>962970</v>
+      </c>
+      <c r="H1480" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1480" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1480" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1480" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1480" t="inlineStr"/>
+    </row>
+    <row r="1481">
+      <c r="A1481" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B1481" t="n">
+        <v>1154.099975585938</v>
+      </c>
+      <c r="C1481" t="n">
+        <v>1169.5</v>
+      </c>
+      <c r="D1481" t="n">
+        <v>1143.300048828125</v>
+      </c>
+      <c r="E1481" t="n">
+        <v>1149.199951171875</v>
+      </c>
+      <c r="F1481" t="inlineStr"/>
+      <c r="G1481" t="n">
+        <v>853859</v>
+      </c>
+      <c r="H1481" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1481" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1481" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1481" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1481" t="inlineStr"/>
+    </row>
+    <row r="1482">
+      <c r="A1482" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B1482" t="n">
+        <v>1140</v>
+      </c>
+      <c r="C1482" t="n">
+        <v>1152</v>
+      </c>
+      <c r="D1482" t="n">
+        <v>1116.099975585938</v>
+      </c>
+      <c r="E1482" t="n">
+        <v>1136.199951171875</v>
+      </c>
+      <c r="F1482" t="inlineStr"/>
+      <c r="G1482" t="n">
+        <v>1419614</v>
+      </c>
+      <c r="H1482" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1482" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1482" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1482" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1482" t="inlineStr"/>
+    </row>
+    <row r="1483">
+      <c r="A1483" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1483" t="n">
+        <v>1140</v>
+      </c>
+      <c r="C1483" t="n">
+        <v>1182</v>
+      </c>
+      <c r="D1483" t="n">
+        <v>1137</v>
+      </c>
+      <c r="E1483" t="n">
+        <v>1166.099975585938</v>
+      </c>
+      <c r="F1483" t="inlineStr"/>
+      <c r="G1483" t="n">
+        <v>1225396</v>
+      </c>
+      <c r="H1483" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1483" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1483" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1483" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1483" t="inlineStr"/>
+    </row>
+    <row r="1484">
+      <c r="A1484" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B1484" t="n">
+        <v>1168</v>
+      </c>
+      <c r="C1484" t="n">
+        <v>1181</v>
+      </c>
+      <c r="D1484" t="n">
+        <v>1157</v>
+      </c>
+      <c r="E1484" t="n">
+        <v>1165.599975585938</v>
+      </c>
+      <c r="F1484" t="inlineStr"/>
+      <c r="G1484" t="n">
+        <v>765770</v>
+      </c>
+      <c r="H1484" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1484" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1484" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1484" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1484" t="inlineStr"/>
+    </row>
+    <row r="1485">
+      <c r="A1485" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B1485" t="n">
+        <v>1181.900024414062</v>
+      </c>
+      <c r="C1485" t="n">
+        <v>1238.599975585938</v>
+      </c>
+      <c r="D1485" t="n">
+        <v>1179.900024414062</v>
+      </c>
+      <c r="E1485" t="n">
+        <v>1228.900024414062</v>
+      </c>
+      <c r="F1485" t="inlineStr"/>
+      <c r="G1485" t="n">
+        <v>2944078</v>
+      </c>
+      <c r="H1485" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1485" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1485" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1485" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1485" t="inlineStr"/>
+    </row>
+    <row r="1486">
+      <c r="A1486" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B1486" t="n">
+        <v>1235</v>
+      </c>
+      <c r="C1486" t="n">
+        <v>1237.699951171875</v>
+      </c>
+      <c r="D1486" t="n">
+        <v>1208</v>
+      </c>
+      <c r="E1486" t="n">
+        <v>1213.599975585938</v>
+      </c>
+      <c r="F1486" t="inlineStr"/>
+      <c r="G1486" t="n">
+        <v>1137209</v>
+      </c>
+      <c r="H1486" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1486" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1486" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1486" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1486" t="inlineStr"/>
+    </row>
+    <row r="1487">
+      <c r="A1487" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>1220</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>1233.800048828125</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>1177.599975585938</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>1221</v>
+      </c>
+      <c r="F1487" t="inlineStr"/>
+      <c r="G1487" t="n">
+        <v>1750502</v>
+      </c>
+      <c r="H1487" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1487" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1487" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1487" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1487" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1487" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1487"/>
+  <dimension ref="A1:R1496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83173,7 +83173,9 @@
       <c r="Q1480" t="n">
         <v>0</v>
       </c>
-      <c r="R1480" t="inlineStr"/>
+      <c r="R1480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1481">
       <c r="A1481" s="2" t="n">
@@ -83225,7 +83227,9 @@
       <c r="Q1481" t="n">
         <v>0</v>
       </c>
-      <c r="R1481" t="inlineStr"/>
+      <c r="R1481" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1482">
       <c r="A1482" s="2" t="n">
@@ -83277,7 +83281,9 @@
       <c r="Q1482" t="n">
         <v>0</v>
       </c>
-      <c r="R1482" t="inlineStr"/>
+      <c r="R1482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1483">
       <c r="A1483" s="2" t="n">
@@ -83329,7 +83335,9 @@
       <c r="Q1483" t="n">
         <v>0</v>
       </c>
-      <c r="R1483" t="inlineStr"/>
+      <c r="R1483" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1484">
       <c r="A1484" s="2" t="n">
@@ -83381,7 +83389,9 @@
       <c r="Q1484" t="n">
         <v>0</v>
       </c>
-      <c r="R1484" t="inlineStr"/>
+      <c r="R1484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1485">
       <c r="A1485" s="2" t="n">
@@ -83433,7 +83443,9 @@
       <c r="Q1485" t="n">
         <v>0</v>
       </c>
-      <c r="R1485" t="inlineStr"/>
+      <c r="R1485" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1486">
       <c r="A1486" s="2" t="n">
@@ -83485,7 +83497,9 @@
       <c r="Q1486" t="n">
         <v>0</v>
       </c>
-      <c r="R1486" t="inlineStr"/>
+      <c r="R1486" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1487">
       <c r="A1487" s="2" t="n">
@@ -83537,7 +83551,477 @@
       <c r="Q1487" t="n">
         <v>1</v>
       </c>
-      <c r="R1487" t="inlineStr"/>
+      <c r="R1487" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>1221</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>1277</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>1195.400024414062</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>1231.199951171875</v>
+      </c>
+      <c r="F1488" t="inlineStr"/>
+      <c r="G1488" t="n">
+        <v>5815225</v>
+      </c>
+      <c r="H1488" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1488" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1488" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1488" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1488" t="inlineStr"/>
+    </row>
+    <row r="1489">
+      <c r="A1489" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>1229</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>1275</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>1192.800048828125</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>1264.800048828125</v>
+      </c>
+      <c r="F1489" t="inlineStr"/>
+      <c r="G1489" t="n">
+        <v>4067879</v>
+      </c>
+      <c r="H1489" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1489" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1489" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1489" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1489" t="inlineStr"/>
+    </row>
+    <row r="1490">
+      <c r="A1490" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>1269</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>1287</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>1240</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>1253.599975585938</v>
+      </c>
+      <c r="F1490" t="inlineStr"/>
+      <c r="G1490" t="n">
+        <v>2214690</v>
+      </c>
+      <c r="H1490" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1490" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1490" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1490" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1490" t="inlineStr"/>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>1253.599975585938</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>1278.900024414062</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>1233.099975585938</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>1236.5</v>
+      </c>
+      <c r="F1491" t="inlineStr"/>
+      <c r="G1491" t="n">
+        <v>1083460</v>
+      </c>
+      <c r="H1491" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1491" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1491" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1491" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1491" t="inlineStr"/>
+    </row>
+    <row r="1492">
+      <c r="A1492" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>1233.599975585938</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>1267</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>1233.099975585938</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>1258.599975585938</v>
+      </c>
+      <c r="F1492" t="inlineStr"/>
+      <c r="G1492" t="n">
+        <v>703377</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1492" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1492" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1492" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1492" t="inlineStr"/>
+    </row>
+    <row r="1493">
+      <c r="A1493" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>1264</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>1271.400024414062</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>1236</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>1241.400024414062</v>
+      </c>
+      <c r="F1493" t="inlineStr"/>
+      <c r="G1493" t="n">
+        <v>894504</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1493" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1493" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1493" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1493" t="inlineStr"/>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>1212</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>1286.099975585938</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>1212</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>1283</v>
+      </c>
+      <c r="F1494" t="inlineStr"/>
+      <c r="G1494" t="n">
+        <v>1379368</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1494" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1494" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1494" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1494" t="inlineStr"/>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>1283.400024414062</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>1316.599975585938</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>1262</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>1273.199951171875</v>
+      </c>
+      <c r="F1495" t="inlineStr"/>
+      <c r="G1495" t="n">
+        <v>1347598</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1495" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1495" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1495" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1495" t="inlineStr"/>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>1235.900024414062</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>1266</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>1235.199951171875</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>1244.199951171875</v>
+      </c>
+      <c r="F1496" t="inlineStr"/>
+      <c r="G1496" t="n">
+        <v>874527</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1496" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1496" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1496" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPITTECH.NS.xlsx
+++ b/stock_historical_data/1d/KPITTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1496"/>
+  <dimension ref="A1:R1506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83605,7 +83605,9 @@
       <c r="Q1488" t="n">
         <v>0</v>
       </c>
-      <c r="R1488" t="inlineStr"/>
+      <c r="R1488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1489">
       <c r="A1489" s="2" t="n">
@@ -83657,7 +83659,9 @@
       <c r="Q1489" t="n">
         <v>0</v>
       </c>
-      <c r="R1489" t="inlineStr"/>
+      <c r="R1489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1490">
       <c r="A1490" s="2" t="n">
@@ -83709,7 +83713,9 @@
       <c r="Q1490" t="n">
         <v>0</v>
       </c>
-      <c r="R1490" t="inlineStr"/>
+      <c r="R1490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1491">
       <c r="A1491" s="2" t="n">
@@ -83761,7 +83767,9 @@
       <c r="Q1491" t="n">
         <v>0</v>
       </c>
-      <c r="R1491" t="inlineStr"/>
+      <c r="R1491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1492">
       <c r="A1492" s="2" t="n">
@@ -83813,7 +83821,9 @@
       <c r="Q1492" t="n">
         <v>0</v>
       </c>
-      <c r="R1492" t="inlineStr"/>
+      <c r="R1492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1493">
       <c r="A1493" s="2" t="n">
@@ -83865,7 +83875,9 @@
       <c r="Q1493" t="n">
         <v>0</v>
       </c>
-      <c r="R1493" t="inlineStr"/>
+      <c r="R1493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1494">
       <c r="A1494" s="2" t="n">
@@ -83917,7 +83929,9 @@
       <c r="Q1494" t="n">
         <v>0</v>
       </c>
-      <c r="R1494" t="inlineStr"/>
+      <c r="R1494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1495">
       <c r="A1495" s="2" t="n">
@@ -83969,7 +83983,9 @@
       <c r="Q1495" t="n">
         <v>0</v>
       </c>
-      <c r="R1495" t="inlineStr"/>
+      <c r="R1495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1496">
       <c r="A1496" s="2" t="n">
@@ -84021,7 +84037,529 @@
       <c r="Q1496" t="n">
         <v>0</v>
       </c>
-      <c r="R1496" t="inlineStr"/>
+      <c r="R1496" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>1300</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>1336.5</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>1286.400024414062</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>1325.099975585938</v>
+      </c>
+      <c r="F1497" t="inlineStr"/>
+      <c r="G1497" t="n">
+        <v>1900130</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1497" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1497" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1497" t="inlineStr"/>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>1330</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>1355</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>1315</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>1346.099975585938</v>
+      </c>
+      <c r="F1498" t="inlineStr"/>
+      <c r="G1498" t="n">
+        <v>1308106</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1498" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1498" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1498" t="inlineStr"/>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>1349</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>1378.599975585938</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>1346.199951171875</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>1351.5</v>
+      </c>
+      <c r="F1499" t="inlineStr"/>
+      <c r="G1499" t="n">
+        <v>987041</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1499" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1499" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1499" t="inlineStr"/>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>1353</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>1401.900024414062</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>1353</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>1393.199951171875</v>
+      </c>
+      <c r="F1500" t="inlineStr"/>
+      <c r="G1500" t="n">
+        <v>2261019</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1500" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1500" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1500" t="inlineStr"/>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>1404</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>1404</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>1361.599975585938</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>1364.800048828125</v>
+      </c>
+      <c r="F1501" t="inlineStr"/>
+      <c r="G1501" t="n">
+        <v>1270996</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1501" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1501" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1501" t="inlineStr"/>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="2" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>1364.800048828125</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>1367.5</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>1336.199951171875</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>1345.599975585938</v>
+      </c>
+      <c r="F1502" t="inlineStr"/>
+      <c r="G1502" t="n">
+        <v>777521</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1502" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1502" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1502" t="n">
+        <v>21</v>
+      </c>
+      <c r="O1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1502" t="inlineStr"/>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="2" t="n">
+        <v>45797</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>1354</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>1361.800048828125</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>1310.5</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>1317.699951171875</v>
+      </c>
+      <c r="F1503" t="inlineStr"/>
+      <c r="G1503" t="n">
+        <v>996510</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1503" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1503" t="n">
+        <v>21</v>
+      </c>
+      <c r="O1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1503" t="inlineStr"/>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="2" t="n">
+        <v>45798</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>1313.099975585938</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>1338.800048828125</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>1308.800048828125</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>1331.599975585938</v>
+      </c>
+      <c r="F1504" t="inlineStr"/>
+      <c r="G1504" t="n">
+        <v>544598</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1504" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1504" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1504" t="n">
+        <v>21</v>
+      </c>
+      <c r="O1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1504" t="inlineStr"/>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="2" t="n">
+        <v>45799</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>1329.900024414062</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>1332.800048828125</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>1309.099975585938</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>1320.199951171875</v>
+      </c>
+      <c r="F1505" t="inlineStr"/>
+      <c r="G1505" t="n">
+        <v>418410</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1505" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1505" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1505" t="n">
+        <v>21</v>
+      </c>
+      <c r="O1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1505" t="inlineStr"/>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="2" t="n">
+        <v>45800</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>1320.199951171875</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>1320.199951171875</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>1329</v>
+      </c>
+      <c r="F1506" t="inlineStr"/>
+      <c r="G1506" t="n">
+        <v>633788</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1506" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1506" t="n">
+        <v>21</v>
+      </c>
+      <c r="O1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1506" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
